--- a/1. Database Design/JAVA 19 20 - Quyen Phan - Database Design.xlsx
+++ b/1. Database Design/JAVA 19 20 - Quyen Phan - Database Design.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6987EC7-71C7-4515-B696-2437056510CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416DCE52-5F8C-4653-A625-AE233EE22B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="481" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="481" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -1452,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1569,6 +1569,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1593,33 +1611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1635,10 +1626,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1984,21 +1971,21 @@
   <sheetData>
     <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="G2" s="46" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="G2" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2016,9 +2003,9 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2466,16 +2453,16 @@
   <sheetData>
     <row r="1" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2484,9 +2471,9 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2875,7 +2862,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -2899,7 +2886,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2926,7 +2913,7 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="54" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -2942,7 +2929,7 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="49"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
@@ -3394,7 +3381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W118"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3418,18 +3405,18 @@
   <sheetData>
     <row r="1" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
@@ -3440,9 +3427,9 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
@@ -4685,10 +4672,10 @@
       <c r="B111" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="D111" s="50"/>
+      <c r="D111" s="56"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="41" t="s">
@@ -4803,8 +4790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79120E3-8B85-45B8-906C-9F3770585442}">
   <dimension ref="A1:Y142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="D6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -4828,21 +4815,21 @@
   <sheetData>
     <row r="1" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="55"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -4854,9 +4841,9 @@
       </c>
     </row>
     <row r="4" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="18" t="s">
         <v>231</v>
       </c>
@@ -4955,10 +4942,10 @@
       </c>
     </row>
     <row r="6" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="44" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -4967,10 +4954,10 @@
       <c r="E6" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="44" t="s">
         <v>97</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -4979,26 +4966,26 @@
       <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="44" t="s">
         <v>133</v>
       </c>
       <c r="O6" s="2"/>
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="45" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -5041,7 +5028,7 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -5085,7 +5072,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -5119,7 +5106,7 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -5128,14 +5115,14 @@
       <c r="D10" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="46" t="s">
         <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I10" s="25" t="s">
@@ -5156,7 +5143,7 @@
       <c r="X10" s="10"/>
     </row>
     <row r="11" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="46" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -5168,7 +5155,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="1" t="s">
         <v>250</v>
       </c>
       <c r="J11" s="25" t="s">
@@ -5184,7 +5171,7 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="46" t="s">
         <v>130</v>
       </c>
       <c r="C12" s="3"/>
@@ -5475,7 +5462,6 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="56"/>
     </row>
     <row r="35" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="26" t="s">
@@ -5630,7 +5616,6 @@
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="56"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="26" t="s">
@@ -5728,7 +5713,7 @@
       <c r="D65" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="57"/>
+      <c r="E65" s="12"/>
       <c r="G65" s="36" t="s">
         <v>198</v>
       </c>
@@ -5748,7 +5733,6 @@
       <c r="D66" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E66" s="56"/>
       <c r="G66" s="3" t="s">
         <v>72</v>
       </c>
@@ -5770,7 +5754,6 @@
       <c r="D67" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E67" s="56"/>
       <c r="G67" s="3">
         <v>1</v>
       </c>
@@ -5792,7 +5775,6 @@
       <c r="D68" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E68" s="56"/>
       <c r="G68" s="3">
         <v>2</v>
       </c>
@@ -5814,7 +5796,6 @@
       <c r="D69" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E69" s="56"/>
       <c r="G69" s="3">
         <v>3</v>
       </c>
@@ -5887,7 +5868,6 @@
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="56"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="26" t="s">
@@ -6004,7 +5984,6 @@
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="56"/>
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
       <c r="I91" s="39"/>
@@ -6133,7 +6112,6 @@
       <c r="D102" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="56"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
@@ -6145,7 +6123,6 @@
       <c r="D103" s="3">
         <v>10</v>
       </c>
-      <c r="E103" s="56"/>
       <c r="F103" s="12"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
@@ -6158,7 +6135,6 @@
       <c r="D104" s="3">
         <v>12</v>
       </c>
-      <c r="E104" s="56"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
@@ -6170,7 +6146,6 @@
       <c r="D105" s="3">
         <v>65</v>
       </c>
-      <c r="E105" s="56"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
@@ -6182,7 +6157,6 @@
       <c r="D106" s="3">
         <v>10</v>
       </c>
-      <c r="E106" s="56"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
@@ -6194,7 +6168,6 @@
       <c r="D107" s="3">
         <v>12</v>
       </c>
-      <c r="E107" s="56"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
@@ -6206,17 +6179,16 @@
       <c r="D108" s="3">
         <v>65</v>
       </c>
-      <c r="E108" s="56"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="D111" s="50"/>
-      <c r="E111" s="58"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="29"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="41" t="s">
@@ -6324,10 +6296,10 @@
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="59" t="s">
+      <c r="B123" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E123" s="59" t="s">
+      <c r="E123" s="48" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6377,7 +6349,7 @@
       <c r="B127" s="3">
         <v>3</v>
       </c>
-      <c r="C127" s="60" t="s">
+      <c r="C127" s="49" t="s">
         <v>239</v>
       </c>
       <c r="E127" s="3">
@@ -6432,7 +6404,7 @@
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="59" t="s">
+      <c r="B133" s="48" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6604,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -6800,7 +6772,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="43"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="57" t="s">
         <v>226</v>
       </c>
       <c r="D6" s="43" t="s">
@@ -6809,7 +6781,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="43" t="s">
         <v>227</v>
       </c>

--- a/1. Database Design/JAVA 19 20 - Quyen Phan - Database Design.xlsx
+++ b/1. Database Design/JAVA 19 20 - Quyen Phan - Database Design.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416DCE52-5F8C-4653-A625-AE233EE22B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE88569D-0A9F-4EDF-B4E4-B70AF7B7C3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="481" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="883" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,35 @@
     <sheet name="B4. Cơ sở dữ liệu vật lý" sheetId="6" r:id="rId4"/>
     <sheet name="Các bước khởi tạo CSDL" sheetId="4" r:id="rId5"/>
     <sheet name="Tổng hợp" sheetId="5" r:id="rId6"/>
+    <sheet name="T01_CUSTOMER" sheetId="7" r:id="rId7"/>
+    <sheet name="T02_ITEM" sheetId="8" r:id="rId8"/>
+    <sheet name="T03_ORDER" sheetId="9" r:id="rId9"/>
+    <sheet name="T04_ORDER_DETAIL" sheetId="10" r:id="rId10"/>
+    <sheet name="T05_SIZE" sheetId="11" r:id="rId11"/>
+    <sheet name="T06_ORDER_STATUS" sheetId="12" r:id="rId12"/>
+    <sheet name="T07_ORDER_STATUS_DETAIL" sheetId="13" r:id="rId13"/>
+    <sheet name="T08_BILL" sheetId="14" r:id="rId14"/>
+    <sheet name="T09_EMPLOYEE" sheetId="15" r:id="rId15"/>
+    <sheet name="T10_ITEM_GROUP" sheetId="16" r:id="rId16"/>
+    <sheet name="T11_ITEM_DETAIL" sheetId="17" r:id="rId17"/>
+    <sheet name="T12_PAYMENT_METHOD" sheetId="18" r:id="rId18"/>
+    <sheet name="T13_DEPARTMENT" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -209,40 +233,16 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
     <author>tc={ECDC740F-86ED-46E3-9132-C062E3C238F4}</author>
     <author>tc={A455E74A-E01C-4FA0-9E25-F3EEFC89F2D4}</author>
+    <author>Author</author>
     <author>tc={5442799C-ABCF-466D-94A0-A60270164833}</author>
     <author>tc={D77AB19F-1A1E-46DD-BC37-9C80221DE81A}</author>
     <author>tc={BF70CA20-B203-4626-A5A1-F0CD01E1ADF6}</author>
     <author>tc={52685A0F-F2C4-4126-84A3-987A0B9902D1}</author>
   </authors>
   <commentList>
-    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{E5A75E30-2E3A-4AB1-AAAC-49ABFA6D46B4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-thuộc tính đa trị</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L10" authorId="1" shapeId="0" xr:uid="{ECDC740F-86ED-46E3-9132-C062E3C238F4}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{ECDC740F-86ED-46E3-9132-C062E3C238F4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -250,7 +250,7 @@
     Amount of items still in warehouse</t>
       </text>
     </comment>
-    <comment ref="L11" authorId="2" shapeId="0" xr:uid="{A455E74A-E01C-4FA0-9E25-F3EEFC89F2D4}">
+    <comment ref="L11" authorId="1" shapeId="0" xr:uid="{A455E74A-E01C-4FA0-9E25-F3EEFC89F2D4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -258,7 +258,7 @@
     Sales price of item, size</t>
       </text>
     </comment>
-    <comment ref="Y13" authorId="0" shapeId="0" xr:uid="{15F5456E-69F2-4695-A9C2-9373FD181B27}">
+    <comment ref="Y13" authorId="2" shapeId="0" xr:uid="{15F5456E-69F2-4695-A9C2-9373FD181B27}">
       <text>
         <r>
           <rPr>
@@ -320,8 +320,44 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CC6392E2-5211-4B01-B450-86C3CE187AF0}</author>
+    <author>tc={60541A29-CE40-4DB1-8BB5-16B611C50CD0}</author>
+    <author>tc={F6ED8CED-41F2-4A8C-8910-66C78FFEAB6B}</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{CC6392E2-5211-4B01-B450-86C3CE187AF0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Amount of items still in warehouse</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{60541A29-CE40-4DB1-8BB5-16B611C50CD0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Amount of items still in warehouse</t>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="2" shapeId="0" xr:uid="{F6ED8CED-41F2-4A8C-8910-66C78FFEAB6B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Sales price of item, size</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="382">
   <si>
     <t>Xác định các đối tượng cần lưu trữ
 Xác định các thuộc tính, thông tin của từng đối tượng</t>
@@ -1271,12 +1307,405 @@
   <si>
     <t>UPDATED_AT</t>
   </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Hòa Khánh Nam</t>
+  </si>
+  <si>
+    <t>susan@gmail.com</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Hòa Châu</t>
+  </si>
+  <si>
+    <t>smith@gmail.com</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Hải Châu 1</t>
+  </si>
+  <si>
+    <t>henry@gmail.com</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>Hòa Hiệp Bắc</t>
+  </si>
+  <si>
+    <t>pepe@gmail.com</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Hòa Minh</t>
+  </si>
+  <si>
+    <t>carlis@gmail.com</t>
+  </si>
+  <si>
+    <t>Chờ xác nhận</t>
+  </si>
+  <si>
+    <t>Xác nhận thành công</t>
+  </si>
+  <si>
+    <t>Đóng gói thành công</t>
+  </si>
+  <si>
+    <t>Giao hàng thành công</t>
+  </si>
+  <si>
+    <t>Giao hàng thất bại</t>
+  </si>
+  <si>
+    <t>Áo</t>
+  </si>
+  <si>
+    <t>Quần</t>
+  </si>
+  <si>
+    <t>Giày</t>
+  </si>
+  <si>
+    <t>Dép</t>
+  </si>
+  <si>
+    <t>Mũ</t>
+  </si>
+  <si>
+    <t>Thắt lưng</t>
+  </si>
+  <si>
+    <t>Bộ phận nhân sự</t>
+  </si>
+  <si>
+    <t>Bộ phận bán hàng</t>
+  </si>
+  <si>
+    <t>Bộ phận giao hàng</t>
+  </si>
+  <si>
+    <t>Bộ phận giảm sát</t>
+  </si>
+  <si>
+    <t>Bộ phận quảng cáo</t>
+  </si>
+  <si>
+    <t>Tiền mặt</t>
+  </si>
+  <si>
+    <t>Thẻ tín dụng</t>
+  </si>
+  <si>
+    <t>Thẻ ghi nợ</t>
+  </si>
+  <si>
+    <t>Ví điện tử</t>
+  </si>
+  <si>
+    <t>Mô tả: S Nam chi tiết ...</t>
+  </si>
+  <si>
+    <t>Mô tả: M Nữ chi tiết ...</t>
+  </si>
+  <si>
+    <t>Mô tả: M Nam chi tiết ...</t>
+  </si>
+  <si>
+    <t>Mô tả: L Nữ chi tiết ...</t>
+  </si>
+  <si>
+    <t>Mô tả: L Nam chi tiết ...</t>
+  </si>
+  <si>
+    <t>Mô tả: XL Nữ chi tiết ...</t>
+  </si>
+  <si>
+    <t>Mô tả: XL Nam chi tiết ...</t>
+  </si>
+  <si>
+    <t>Mô tả: XXL Nữ chi tiết ...</t>
+  </si>
+  <si>
+    <t>Mô tả: XXL Nam chi tiết ...</t>
+  </si>
+  <si>
+    <t>Mô tả: S Nữ chi tiết …</t>
+  </si>
+  <si>
+    <t>Địa chỉ 1</t>
+  </si>
+  <si>
+    <t>Địa chỉ 2</t>
+  </si>
+  <si>
+    <t>Địa chỉ 3</t>
+  </si>
+  <si>
+    <t>Địa chỉ 4</t>
+  </si>
+  <si>
+    <t>Địa chỉ 5</t>
+  </si>
+  <si>
+    <t>Địa chỉ 6</t>
+  </si>
+  <si>
+    <t>Địa chỉ 7</t>
+  </si>
+  <si>
+    <t>Địa chỉ 8</t>
+  </si>
+  <si>
+    <t>Địa chỉ 9</t>
+  </si>
+  <si>
+    <t>Địa chỉ 10</t>
+  </si>
+  <si>
+    <t>Địa chỉ 11</t>
+  </si>
+  <si>
+    <t>Địa chỉ 12</t>
+  </si>
+  <si>
+    <t>DELIVERY_ADDRESS</t>
+  </si>
+  <si>
+    <t>Nhân viên A</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Nhân viên B</t>
+  </si>
+  <si>
+    <t>Nhân viên C</t>
+  </si>
+  <si>
+    <t>Nhân viên D</t>
+  </si>
+  <si>
+    <t>Nhân viên E</t>
+  </si>
+  <si>
+    <t>Nhân viên F</t>
+  </si>
+  <si>
+    <t>Nhân viên G</t>
+  </si>
+  <si>
+    <t>Nhân viên K</t>
+  </si>
+  <si>
+    <t>Áo 1</t>
+  </si>
+  <si>
+    <t>Trắng</t>
+  </si>
+  <si>
+    <t>Chất Liệu 1</t>
+  </si>
+  <si>
+    <t>Áo 2</t>
+  </si>
+  <si>
+    <t>Đen</t>
+  </si>
+  <si>
+    <t>Chất Liệu 2</t>
+  </si>
+  <si>
+    <t>Giày 1</t>
+  </si>
+  <si>
+    <t>Chất Liệu 3</t>
+  </si>
+  <si>
+    <t>Giày 2</t>
+  </si>
+  <si>
+    <t>Chất Liệu 4</t>
+  </si>
+  <si>
+    <t>Giày 3</t>
+  </si>
+  <si>
+    <t>Mũ 1</t>
+  </si>
+  <si>
+    <t>Mũ 2</t>
+  </si>
+  <si>
+    <t>Dép 1</t>
+  </si>
+  <si>
+    <t>Mũ 3</t>
+  </si>
+  <si>
+    <t>Chất Liệu 5</t>
+  </si>
+  <si>
+    <t>Thắt lưng 1</t>
+  </si>
+  <si>
+    <t>Thắt lưng 2</t>
+  </si>
+  <si>
+    <t>Quần 3</t>
+  </si>
+  <si>
+    <t>Quần 1</t>
+  </si>
+  <si>
+    <t>Quần 2</t>
+  </si>
+  <si>
+    <t>NAME x</t>
+  </si>
+  <si>
+    <t>-- 1. Đơn hàng từ 1 - 5 --&gt; Giao thành công (trạng thái từ 1 - 6)</t>
+  </si>
+  <si>
+    <t>-- .2 Đơn hàng từ 6 - 8 --&gt; Đóng gói thành công (trạng thái từ 1 - 4)</t>
+  </si>
+  <si>
+    <t>-- 3. Đơn hàng từ 9 - 10 --&gt; Đang giao hàng (trạng thái từ 1 - 5)</t>
+  </si>
+  <si>
+    <t>-- Cập nhật trạng thái cách nhau 1 ngày</t>
+  </si>
+  <si>
+    <t>-- 1. Đơn hàng từ 1 - 5 --&gt; Giao thành công (trạng thái từ 1 - 6) --&gt; Nhân viên 1</t>
+  </si>
+  <si>
+    <t>-- 2 Đơn hàng từ 6 - 8 --&gt; Đóng gói thành công (trạng thái từ 1 - 4) --&gt; Nhân viên 2</t>
+  </si>
+  <si>
+    <t>-- 3. Đơn hàng từ 9 - 10 --&gt; Đang giao hàng (trạng thái từ 1 - 5) --&gt; Nhân viên 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- 4. Đơn hàng từ 11 - 12 --&gt; Hủy đơn hàng (trạng thái 7) --&gt; Nhân viên 4</t>
+  </si>
+  <si>
+    <t>INSERT INTO `order_delivery_status_detail`(ORDER_ID, STATUS_ID, EMPLOYEE_ID, LAST_UPDATED_AT)</t>
+  </si>
+  <si>
+    <t>WITH CTE_ORDER_DELIVERY_STATUS_DETAIL AS (</t>
+  </si>
+  <si>
+    <t>SELECT dorder.ID ORDER_ID,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   dstatus.ID STATUS_ID,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1 EMPLOYEE_ID,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   date_sub(current_timestamp(), INTERVAL (6 - dstatus.ID) DAY) LAST_UPDATED_AT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FROM `order` dorder, `delivery_status` dstatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHERE dorder.ID BETWEEN 1 AND 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AND dstatus.ID BETWEEN 1 AND 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- ORDER BY dorder.ID, dstatus.ID</t>
+  </si>
+  <si>
+    <t>UNION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2 EMPLOYEE_ID,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   date_sub(current_timestamp(), INTERVAL (4 - dstatus.ID) DAY) LAST_UPDATED_AT </t>
+  </si>
+  <si>
+    <t>FROM `order` dorder, `delivery_status` dstatus</t>
+  </si>
+  <si>
+    <t>WHERE dorder.ID BETWEEN 6 AND 8</t>
+  </si>
+  <si>
+    <t>AND dstatus.ID BETWEEN 1 AND 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3 EMPLOYEE_ID,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   date_sub(current_timestamp(), INTERVAL (5 - dstatus.ID) DAY) LAST_UPDATED_AT </t>
+  </si>
+  <si>
+    <t>WHERE dorder.ID BETWEEN 9 AND 10</t>
+  </si>
+  <si>
+    <t>AND dstatus.ID BETWEEN 1 AND 5</t>
+  </si>
+  <si>
+    <t>-- 4. Đơn hàng từ 11 - 12 --&gt; Hủy đơn hàng (trạng thái 7)</t>
+  </si>
+  <si>
+    <t>SELECT ID ORDER_ID,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7 STATUS_ID, -- cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4 EMPLOYEE_ID,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   current_timestamp() LAST_UPDATED_AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FROM `order`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHERE </t>
+  </si>
+  <si>
+    <t>ID BETWEEN 11 AND 12</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>SELECT * FROM CTE_ORDER_DELIVERY_STATUS_DETAIL</t>
+  </si>
+  <si>
+    <t>ORDER BY ORDER_ID, STATUS_ID;</t>
+  </si>
+  <si>
+    <t>-- common table expression</t>
+  </si>
+  <si>
+    <t>BUY_PRICE x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1367,6 +1796,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1412,7 +1860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1448,11 +1896,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1611,6 +2072,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1626,6 +2145,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1945,12 +2468,26 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E4" dT="2023-11-10T14:20:56.11" personId="{00000000-0000-0000-0000-000000000000}" id="{CC6392E2-5211-4B01-B450-86C3CE187AF0}">
+    <text>Amount of items still in warehouse</text>
+  </threadedComment>
+  <threadedComment ref="F4" dT="2023-11-10T14:20:56.11" personId="{00000000-0000-0000-0000-000000000000}" id="{60541A29-CE40-4DB1-8BB5-16B611C50CD0}">
+    <text>Amount of items still in warehouse</text>
+  </threadedComment>
+  <threadedComment ref="G4" dT="2023-11-13T13:18:41.94" personId="{00000000-0000-0000-0000-000000000000}" id="{F6ED8CED-41F2-4A8C-8910-66C78FFEAB6B}">
+    <text>Sales price of item, size</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" activeCellId="1" sqref="E21 E22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -2427,6 +2964,3527 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1E66AC-B7AB-4694-9C29-CBC315CB6160}">
+  <dimension ref="B1:E52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="29" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="43">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66">
+        <v>1</v>
+      </c>
+      <c r="D5" s="66">
+        <v>4</v>
+      </c>
+      <c r="E5" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43">
+        <v>2</v>
+      </c>
+      <c r="C6" s="66">
+        <v>1</v>
+      </c>
+      <c r="D6" s="66">
+        <v>31</v>
+      </c>
+      <c r="E6" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="43">
+        <v>3</v>
+      </c>
+      <c r="C7" s="66">
+        <v>1</v>
+      </c>
+      <c r="D7" s="66">
+        <v>49</v>
+      </c>
+      <c r="E7" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="43">
+        <v>4</v>
+      </c>
+      <c r="C8" s="66">
+        <v>1</v>
+      </c>
+      <c r="D8" s="66">
+        <v>68</v>
+      </c>
+      <c r="E8" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="43">
+        <v>5</v>
+      </c>
+      <c r="C9" s="66">
+        <v>2</v>
+      </c>
+      <c r="D9" s="66">
+        <v>39</v>
+      </c>
+      <c r="E9" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="43">
+        <v>6</v>
+      </c>
+      <c r="C10" s="66">
+        <v>2</v>
+      </c>
+      <c r="D10" s="66">
+        <v>48</v>
+      </c>
+      <c r="E10" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="43">
+        <v>7</v>
+      </c>
+      <c r="C11" s="66">
+        <v>2</v>
+      </c>
+      <c r="D11" s="66">
+        <v>50</v>
+      </c>
+      <c r="E11" s="66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="43">
+        <v>8</v>
+      </c>
+      <c r="C12" s="66">
+        <v>2</v>
+      </c>
+      <c r="D12" s="66">
+        <v>53</v>
+      </c>
+      <c r="E12" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="43">
+        <v>9</v>
+      </c>
+      <c r="C13" s="66">
+        <v>3</v>
+      </c>
+      <c r="D13" s="66">
+        <v>21</v>
+      </c>
+      <c r="E13" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="43">
+        <v>10</v>
+      </c>
+      <c r="C14" s="66">
+        <v>3</v>
+      </c>
+      <c r="D14" s="66">
+        <v>22</v>
+      </c>
+      <c r="E14" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="43">
+        <v>11</v>
+      </c>
+      <c r="C15" s="66">
+        <v>3</v>
+      </c>
+      <c r="D15" s="66">
+        <v>39</v>
+      </c>
+      <c r="E15" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="43">
+        <v>12</v>
+      </c>
+      <c r="C16" s="66">
+        <v>3</v>
+      </c>
+      <c r="D16" s="66">
+        <v>49</v>
+      </c>
+      <c r="E16" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="43">
+        <v>13</v>
+      </c>
+      <c r="C17" s="66">
+        <v>4</v>
+      </c>
+      <c r="D17" s="66">
+        <v>11</v>
+      </c>
+      <c r="E17" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="43">
+        <v>14</v>
+      </c>
+      <c r="C18" s="66">
+        <v>4</v>
+      </c>
+      <c r="D18" s="66">
+        <v>41</v>
+      </c>
+      <c r="E18" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="43">
+        <v>15</v>
+      </c>
+      <c r="C19" s="66">
+        <v>4</v>
+      </c>
+      <c r="D19" s="66">
+        <v>46</v>
+      </c>
+      <c r="E19" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="43">
+        <v>16</v>
+      </c>
+      <c r="C20" s="66">
+        <v>4</v>
+      </c>
+      <c r="D20" s="66">
+        <v>69</v>
+      </c>
+      <c r="E20" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="43">
+        <v>17</v>
+      </c>
+      <c r="C21" s="66">
+        <v>5</v>
+      </c>
+      <c r="D21" s="66">
+        <v>5</v>
+      </c>
+      <c r="E21" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="43">
+        <v>18</v>
+      </c>
+      <c r="C22" s="66">
+        <v>5</v>
+      </c>
+      <c r="D22" s="66">
+        <v>24</v>
+      </c>
+      <c r="E22" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="43">
+        <v>19</v>
+      </c>
+      <c r="C23" s="66">
+        <v>5</v>
+      </c>
+      <c r="D23" s="66">
+        <v>39</v>
+      </c>
+      <c r="E23" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="43">
+        <v>20</v>
+      </c>
+      <c r="C24" s="66">
+        <v>5</v>
+      </c>
+      <c r="D24" s="66">
+        <v>56</v>
+      </c>
+      <c r="E24" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="43">
+        <v>21</v>
+      </c>
+      <c r="C25" s="66">
+        <v>6</v>
+      </c>
+      <c r="D25" s="66">
+        <v>10</v>
+      </c>
+      <c r="E25" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="43">
+        <v>22</v>
+      </c>
+      <c r="C26" s="66">
+        <v>6</v>
+      </c>
+      <c r="D26" s="66">
+        <v>23</v>
+      </c>
+      <c r="E26" s="66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="43">
+        <v>23</v>
+      </c>
+      <c r="C27" s="66">
+        <v>6</v>
+      </c>
+      <c r="D27" s="66">
+        <v>29</v>
+      </c>
+      <c r="E27" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="43">
+        <v>24</v>
+      </c>
+      <c r="C28" s="66">
+        <v>6</v>
+      </c>
+      <c r="D28" s="66">
+        <v>30</v>
+      </c>
+      <c r="E28" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="43">
+        <v>25</v>
+      </c>
+      <c r="C29" s="66">
+        <v>7</v>
+      </c>
+      <c r="D29" s="66">
+        <v>17</v>
+      </c>
+      <c r="E29" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="43">
+        <v>26</v>
+      </c>
+      <c r="C30" s="66">
+        <v>7</v>
+      </c>
+      <c r="D30" s="66">
+        <v>43</v>
+      </c>
+      <c r="E30" s="66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="43">
+        <v>27</v>
+      </c>
+      <c r="C31" s="66">
+        <v>7</v>
+      </c>
+      <c r="D31" s="66">
+        <v>54</v>
+      </c>
+      <c r="E31" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="43">
+        <v>28</v>
+      </c>
+      <c r="C32" s="66">
+        <v>7</v>
+      </c>
+      <c r="D32" s="66">
+        <v>57</v>
+      </c>
+      <c r="E32" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="43">
+        <v>29</v>
+      </c>
+      <c r="C33" s="66">
+        <v>8</v>
+      </c>
+      <c r="D33" s="66">
+        <v>8</v>
+      </c>
+      <c r="E33" s="66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="43">
+        <v>30</v>
+      </c>
+      <c r="C34" s="66">
+        <v>8</v>
+      </c>
+      <c r="D34" s="66">
+        <v>18</v>
+      </c>
+      <c r="E34" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="43">
+        <v>31</v>
+      </c>
+      <c r="C35" s="66">
+        <v>8</v>
+      </c>
+      <c r="D35" s="66">
+        <v>59</v>
+      </c>
+      <c r="E35" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="43">
+        <v>32</v>
+      </c>
+      <c r="C36" s="66">
+        <v>8</v>
+      </c>
+      <c r="D36" s="66">
+        <v>65</v>
+      </c>
+      <c r="E36" s="66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="43">
+        <v>33</v>
+      </c>
+      <c r="C37" s="66">
+        <v>9</v>
+      </c>
+      <c r="D37" s="66">
+        <v>29</v>
+      </c>
+      <c r="E37" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="43">
+        <v>34</v>
+      </c>
+      <c r="C38" s="66">
+        <v>9</v>
+      </c>
+      <c r="D38" s="66">
+        <v>34</v>
+      </c>
+      <c r="E38" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="43">
+        <v>35</v>
+      </c>
+      <c r="C39" s="66">
+        <v>9</v>
+      </c>
+      <c r="D39" s="66">
+        <v>38</v>
+      </c>
+      <c r="E39" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="43">
+        <v>36</v>
+      </c>
+      <c r="C40" s="66">
+        <v>9</v>
+      </c>
+      <c r="D40" s="66">
+        <v>53</v>
+      </c>
+      <c r="E40" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="43">
+        <v>37</v>
+      </c>
+      <c r="C41" s="66">
+        <v>10</v>
+      </c>
+      <c r="D41" s="66">
+        <v>22</v>
+      </c>
+      <c r="E41" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="43">
+        <v>38</v>
+      </c>
+      <c r="C42" s="66">
+        <v>10</v>
+      </c>
+      <c r="D42" s="66">
+        <v>24</v>
+      </c>
+      <c r="E42" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="43">
+        <v>39</v>
+      </c>
+      <c r="C43" s="66">
+        <v>10</v>
+      </c>
+      <c r="D43" s="66">
+        <v>40</v>
+      </c>
+      <c r="E43" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="43">
+        <v>40</v>
+      </c>
+      <c r="C44" s="66">
+        <v>10</v>
+      </c>
+      <c r="D44" s="66">
+        <v>50</v>
+      </c>
+      <c r="E44" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="43">
+        <v>41</v>
+      </c>
+      <c r="C45" s="66">
+        <v>11</v>
+      </c>
+      <c r="D45" s="66">
+        <v>37</v>
+      </c>
+      <c r="E45" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="43">
+        <v>42</v>
+      </c>
+      <c r="C46" s="66">
+        <v>11</v>
+      </c>
+      <c r="D46" s="66">
+        <v>38</v>
+      </c>
+      <c r="E46" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="43">
+        <v>43</v>
+      </c>
+      <c r="C47" s="66">
+        <v>11</v>
+      </c>
+      <c r="D47" s="66">
+        <v>48</v>
+      </c>
+      <c r="E47" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="43">
+        <v>44</v>
+      </c>
+      <c r="C48" s="66">
+        <v>11</v>
+      </c>
+      <c r="D48" s="66">
+        <v>51</v>
+      </c>
+      <c r="E48" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="43">
+        <v>45</v>
+      </c>
+      <c r="C49" s="66">
+        <v>12</v>
+      </c>
+      <c r="D49" s="66">
+        <v>1</v>
+      </c>
+      <c r="E49" s="66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="43">
+        <v>46</v>
+      </c>
+      <c r="C50" s="66">
+        <v>12</v>
+      </c>
+      <c r="D50" s="66">
+        <v>29</v>
+      </c>
+      <c r="E50" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="43">
+        <v>47</v>
+      </c>
+      <c r="C51" s="66">
+        <v>12</v>
+      </c>
+      <c r="D51" s="66">
+        <v>35</v>
+      </c>
+      <c r="E51" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="43">
+        <v>48</v>
+      </c>
+      <c r="C52" s="66">
+        <v>12</v>
+      </c>
+      <c r="D52" s="66">
+        <v>42</v>
+      </c>
+      <c r="E52" s="66">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E3B674-9472-47F5-A3BC-B1D201A64037}">
+  <dimension ref="B1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+    <col min="6" max="29" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="67">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="67">
+        <v>0</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="67">
+        <v>2</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="67">
+        <v>1</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="67">
+        <v>3</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="67">
+        <v>0</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="67">
+        <v>4</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="67">
+        <v>1</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="67">
+        <v>5</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="67">
+        <v>0</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="67">
+        <v>6</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="67">
+        <v>1</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="67">
+        <v>7</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="67">
+        <v>0</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="67">
+        <v>8</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="67">
+        <v>1</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="67">
+        <v>9</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="67">
+        <v>0</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="67">
+        <v>10</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="67">
+        <v>1</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1649627-2FCE-493D-B5C0-36FA6305E6C1}">
+  <dimension ref="B1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="29" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="67">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="67">
+        <v>2</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="67">
+        <v>3</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="67">
+        <v>4</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="67">
+        <v>5</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="67">
+        <v>6</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="67">
+        <v>7</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="67">
+        <v>8</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B2115A-D7BF-41E7-AB58-A59A037F38B4}">
+  <dimension ref="B1:F62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="29" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="76"/>
+    </row>
+    <row r="7" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="76"/>
+    </row>
+    <row r="8" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="76"/>
+    </row>
+    <row r="9" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="77" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="76"/>
+    </row>
+    <row r="10" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="77" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="74" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" t="e">
+        <f>-- ORDER BY dorder.ID, dstatus.ID</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="e">
+        <f>-- ORDER BY dorder.ID, dstatus.ID</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>375</v>
+      </c>
+      <c r="D59" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D4D865-D657-445A-820B-D3B863AD79D5}">
+  <dimension ref="B1:E40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="29" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="66">
+        <v>1</v>
+      </c>
+      <c r="C5" s="71">
+        <v>45176.870625000003</v>
+      </c>
+      <c r="D5" s="72">
+        <v>0</v>
+      </c>
+      <c r="E5" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="66">
+        <v>2</v>
+      </c>
+      <c r="C6" s="71">
+        <v>45176.870625000003</v>
+      </c>
+      <c r="D6" s="72">
+        <v>0</v>
+      </c>
+      <c r="E6" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="66">
+        <v>3</v>
+      </c>
+      <c r="C7" s="71">
+        <v>45176.870625000003</v>
+      </c>
+      <c r="D7" s="72">
+        <v>0</v>
+      </c>
+      <c r="E7" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="66">
+        <v>4</v>
+      </c>
+      <c r="C8" s="71">
+        <v>45176.870625000003</v>
+      </c>
+      <c r="D8" s="72">
+        <v>0</v>
+      </c>
+      <c r="E8" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="66">
+        <v>5</v>
+      </c>
+      <c r="C9" s="71">
+        <v>45176.870625000003</v>
+      </c>
+      <c r="D9" s="72">
+        <v>0</v>
+      </c>
+      <c r="E9" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="66">
+        <v>6</v>
+      </c>
+      <c r="C10" s="71">
+        <v>45176.870625000003</v>
+      </c>
+      <c r="D10" s="72">
+        <v>0</v>
+      </c>
+      <c r="E10" s="66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="66">
+        <v>7</v>
+      </c>
+      <c r="C11" s="71">
+        <v>45176.870625000003</v>
+      </c>
+      <c r="D11" s="72">
+        <v>0</v>
+      </c>
+      <c r="E11" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="66">
+        <v>8</v>
+      </c>
+      <c r="C12" s="71">
+        <v>45176.870625000003</v>
+      </c>
+      <c r="D12" s="72">
+        <v>0</v>
+      </c>
+      <c r="E12" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="66">
+        <v>9</v>
+      </c>
+      <c r="C13" s="71">
+        <v>45176.870625000003</v>
+      </c>
+      <c r="D13" s="72">
+        <v>0</v>
+      </c>
+      <c r="E13" s="66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="66">
+        <v>10</v>
+      </c>
+      <c r="C14" s="71">
+        <v>45176.870625000003</v>
+      </c>
+      <c r="D14" s="72">
+        <v>0</v>
+      </c>
+      <c r="E14" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBD8B04-D2F9-48AA-BE27-1E82E8208EC4}">
+  <dimension ref="B1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="29" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="66">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="66">
+        <v>1</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+    </row>
+    <row r="6" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="66">
+        <v>2</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" s="66">
+        <v>1</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="66">
+        <v>3</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="66">
+        <v>2</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="66">
+        <v>4</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="66">
+        <v>3</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="66">
+        <v>5</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="66">
+        <v>2</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+    </row>
+    <row r="10" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="66">
+        <v>6</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="66">
+        <v>2</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+    </row>
+    <row r="11" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="66">
+        <v>7</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="66">
+        <v>4</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="66">
+        <v>8</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="66">
+        <v>5</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="64"/>
+    </row>
+    <row r="20" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="64"/>
+    </row>
+    <row r="22" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="64"/>
+    </row>
+    <row r="23" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="64"/>
+    </row>
+    <row r="24" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="64"/>
+    </row>
+    <row r="25" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="64"/>
+    </row>
+    <row r="26" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="64"/>
+    </row>
+    <row r="27" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5973727-8374-4FE4-B9CB-E5EEC055351E}">
+  <dimension ref="B3:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="67">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="67">
+        <v>2</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="67">
+        <v>3</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="67">
+        <v>4</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="67">
+        <v>5</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="67">
+        <v>6</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD1D9A7-6595-4AD7-8E58-C4F147702EF9}">
+  <dimension ref="B3:G74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65">
+        <v>1</v>
+      </c>
+      <c r="D5" s="65">
+        <v>1</v>
+      </c>
+      <c r="E5" s="65">
+        <v>100</v>
+      </c>
+      <c r="F5" s="65">
+        <v>195</v>
+      </c>
+      <c r="G5" s="65">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42">
+        <v>2</v>
+      </c>
+      <c r="C6" s="65">
+        <v>1</v>
+      </c>
+      <c r="D6" s="65">
+        <v>3</v>
+      </c>
+      <c r="E6" s="65">
+        <v>100</v>
+      </c>
+      <c r="F6" s="65">
+        <v>185</v>
+      </c>
+      <c r="G6" s="65">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42">
+        <v>3</v>
+      </c>
+      <c r="C7" s="65">
+        <v>1</v>
+      </c>
+      <c r="D7" s="65">
+        <v>5</v>
+      </c>
+      <c r="E7" s="65">
+        <v>100</v>
+      </c>
+      <c r="F7" s="65">
+        <v>175</v>
+      </c>
+      <c r="G7" s="65">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="42">
+        <v>4</v>
+      </c>
+      <c r="C8" s="65">
+        <v>1</v>
+      </c>
+      <c r="D8" s="65">
+        <v>7</v>
+      </c>
+      <c r="E8" s="65">
+        <v>100</v>
+      </c>
+      <c r="F8" s="65">
+        <v>165</v>
+      </c>
+      <c r="G8" s="65">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="42">
+        <v>5</v>
+      </c>
+      <c r="C9" s="65">
+        <v>1</v>
+      </c>
+      <c r="D9" s="65">
+        <v>9</v>
+      </c>
+      <c r="E9" s="65">
+        <v>100</v>
+      </c>
+      <c r="F9" s="65">
+        <v>155</v>
+      </c>
+      <c r="G9" s="65">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42">
+        <v>6</v>
+      </c>
+      <c r="C10" s="65">
+        <v>2</v>
+      </c>
+      <c r="D10" s="65">
+        <v>2</v>
+      </c>
+      <c r="E10" s="65">
+        <v>120</v>
+      </c>
+      <c r="F10" s="65">
+        <v>284</v>
+      </c>
+      <c r="G10" s="65">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="42">
+        <v>7</v>
+      </c>
+      <c r="C11" s="65">
+        <v>2</v>
+      </c>
+      <c r="D11" s="65">
+        <v>4</v>
+      </c>
+      <c r="E11" s="65">
+        <v>120</v>
+      </c>
+      <c r="F11" s="65">
+        <v>268</v>
+      </c>
+      <c r="G11" s="65">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="42">
+        <v>8</v>
+      </c>
+      <c r="C12" s="65">
+        <v>2</v>
+      </c>
+      <c r="D12" s="65">
+        <v>6</v>
+      </c>
+      <c r="E12" s="65">
+        <v>120</v>
+      </c>
+      <c r="F12" s="65">
+        <v>252</v>
+      </c>
+      <c r="G12" s="65">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="42">
+        <v>9</v>
+      </c>
+      <c r="C13" s="65">
+        <v>2</v>
+      </c>
+      <c r="D13" s="65">
+        <v>8</v>
+      </c>
+      <c r="E13" s="65">
+        <v>120</v>
+      </c>
+      <c r="F13" s="65">
+        <v>236</v>
+      </c>
+      <c r="G13" s="65">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="42">
+        <v>10</v>
+      </c>
+      <c r="C14" s="65">
+        <v>2</v>
+      </c>
+      <c r="D14" s="65">
+        <v>10</v>
+      </c>
+      <c r="E14" s="65">
+        <v>120</v>
+      </c>
+      <c r="F14" s="65">
+        <v>220</v>
+      </c>
+      <c r="G14" s="65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="42">
+        <v>11</v>
+      </c>
+      <c r="C15" s="65">
+        <v>3</v>
+      </c>
+      <c r="D15" s="65">
+        <v>1</v>
+      </c>
+      <c r="E15" s="65">
+        <v>100</v>
+      </c>
+      <c r="F15" s="65">
+        <v>195</v>
+      </c>
+      <c r="G15" s="65">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="42">
+        <v>12</v>
+      </c>
+      <c r="C16" s="65">
+        <v>3</v>
+      </c>
+      <c r="D16" s="65">
+        <v>3</v>
+      </c>
+      <c r="E16" s="65">
+        <v>100</v>
+      </c>
+      <c r="F16" s="65">
+        <v>185</v>
+      </c>
+      <c r="G16" s="65">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="42">
+        <v>13</v>
+      </c>
+      <c r="C17" s="65">
+        <v>3</v>
+      </c>
+      <c r="D17" s="65">
+        <v>5</v>
+      </c>
+      <c r="E17" s="65">
+        <v>100</v>
+      </c>
+      <c r="F17" s="65">
+        <v>175</v>
+      </c>
+      <c r="G17" s="65">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="42">
+        <v>14</v>
+      </c>
+      <c r="C18" s="65">
+        <v>3</v>
+      </c>
+      <c r="D18" s="65">
+        <v>7</v>
+      </c>
+      <c r="E18" s="65">
+        <v>100</v>
+      </c>
+      <c r="F18" s="65">
+        <v>165</v>
+      </c>
+      <c r="G18" s="65">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="42">
+        <v>15</v>
+      </c>
+      <c r="C19" s="65">
+        <v>3</v>
+      </c>
+      <c r="D19" s="65">
+        <v>9</v>
+      </c>
+      <c r="E19" s="65">
+        <v>100</v>
+      </c>
+      <c r="F19" s="65">
+        <v>155</v>
+      </c>
+      <c r="G19" s="65">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="42">
+        <v>16</v>
+      </c>
+      <c r="C20" s="65">
+        <v>4</v>
+      </c>
+      <c r="D20" s="65">
+        <v>2</v>
+      </c>
+      <c r="E20" s="65">
+        <v>120</v>
+      </c>
+      <c r="F20" s="65">
+        <v>284</v>
+      </c>
+      <c r="G20" s="65">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="42">
+        <v>17</v>
+      </c>
+      <c r="C21" s="65">
+        <v>4</v>
+      </c>
+      <c r="D21" s="65">
+        <v>4</v>
+      </c>
+      <c r="E21" s="65">
+        <v>120</v>
+      </c>
+      <c r="F21" s="65">
+        <v>268</v>
+      </c>
+      <c r="G21" s="65">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="42">
+        <v>18</v>
+      </c>
+      <c r="C22" s="65">
+        <v>4</v>
+      </c>
+      <c r="D22" s="65">
+        <v>6</v>
+      </c>
+      <c r="E22" s="65">
+        <v>120</v>
+      </c>
+      <c r="F22" s="65">
+        <v>252</v>
+      </c>
+      <c r="G22" s="65">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="42">
+        <v>19</v>
+      </c>
+      <c r="C23" s="65">
+        <v>4</v>
+      </c>
+      <c r="D23" s="65">
+        <v>8</v>
+      </c>
+      <c r="E23" s="65">
+        <v>120</v>
+      </c>
+      <c r="F23" s="65">
+        <v>236</v>
+      </c>
+      <c r="G23" s="65">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="42">
+        <v>20</v>
+      </c>
+      <c r="C24" s="65">
+        <v>4</v>
+      </c>
+      <c r="D24" s="65">
+        <v>10</v>
+      </c>
+      <c r="E24" s="65">
+        <v>120</v>
+      </c>
+      <c r="F24" s="65">
+        <v>220</v>
+      </c>
+      <c r="G24" s="65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="42">
+        <v>21</v>
+      </c>
+      <c r="C25" s="65">
+        <v>5</v>
+      </c>
+      <c r="D25" s="65">
+        <v>1</v>
+      </c>
+      <c r="E25" s="65">
+        <v>100</v>
+      </c>
+      <c r="F25" s="65">
+        <v>195</v>
+      </c>
+      <c r="G25" s="65">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="42">
+        <v>22</v>
+      </c>
+      <c r="C26" s="65">
+        <v>5</v>
+      </c>
+      <c r="D26" s="65">
+        <v>3</v>
+      </c>
+      <c r="E26" s="65">
+        <v>100</v>
+      </c>
+      <c r="F26" s="65">
+        <v>185</v>
+      </c>
+      <c r="G26" s="65">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="42">
+        <v>23</v>
+      </c>
+      <c r="C27" s="65">
+        <v>5</v>
+      </c>
+      <c r="D27" s="65">
+        <v>5</v>
+      </c>
+      <c r="E27" s="65">
+        <v>100</v>
+      </c>
+      <c r="F27" s="65">
+        <v>175</v>
+      </c>
+      <c r="G27" s="65">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="42">
+        <v>24</v>
+      </c>
+      <c r="C28" s="65">
+        <v>5</v>
+      </c>
+      <c r="D28" s="65">
+        <v>7</v>
+      </c>
+      <c r="E28" s="65">
+        <v>100</v>
+      </c>
+      <c r="F28" s="65">
+        <v>165</v>
+      </c>
+      <c r="G28" s="65">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="42">
+        <v>25</v>
+      </c>
+      <c r="C29" s="65">
+        <v>5</v>
+      </c>
+      <c r="D29" s="65">
+        <v>9</v>
+      </c>
+      <c r="E29" s="65">
+        <v>100</v>
+      </c>
+      <c r="F29" s="65">
+        <v>155</v>
+      </c>
+      <c r="G29" s="65">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="42">
+        <v>26</v>
+      </c>
+      <c r="C30" s="65">
+        <v>6</v>
+      </c>
+      <c r="D30" s="65">
+        <v>2</v>
+      </c>
+      <c r="E30" s="65">
+        <v>120</v>
+      </c>
+      <c r="F30" s="65">
+        <v>284</v>
+      </c>
+      <c r="G30" s="65">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="42">
+        <v>27</v>
+      </c>
+      <c r="C31" s="65">
+        <v>6</v>
+      </c>
+      <c r="D31" s="65">
+        <v>4</v>
+      </c>
+      <c r="E31" s="65">
+        <v>120</v>
+      </c>
+      <c r="F31" s="65">
+        <v>268</v>
+      </c>
+      <c r="G31" s="65">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="42">
+        <v>28</v>
+      </c>
+      <c r="C32" s="65">
+        <v>6</v>
+      </c>
+      <c r="D32" s="65">
+        <v>6</v>
+      </c>
+      <c r="E32" s="65">
+        <v>120</v>
+      </c>
+      <c r="F32" s="65">
+        <v>252</v>
+      </c>
+      <c r="G32" s="65">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="42">
+        <v>29</v>
+      </c>
+      <c r="C33" s="65">
+        <v>6</v>
+      </c>
+      <c r="D33" s="65">
+        <v>8</v>
+      </c>
+      <c r="E33" s="65">
+        <v>120</v>
+      </c>
+      <c r="F33" s="65">
+        <v>236</v>
+      </c>
+      <c r="G33" s="65">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="42">
+        <v>30</v>
+      </c>
+      <c r="C34" s="65">
+        <v>6</v>
+      </c>
+      <c r="D34" s="65">
+        <v>10</v>
+      </c>
+      <c r="E34" s="65">
+        <v>120</v>
+      </c>
+      <c r="F34" s="65">
+        <v>220</v>
+      </c>
+      <c r="G34" s="65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="42">
+        <v>31</v>
+      </c>
+      <c r="C35" s="65">
+        <v>7</v>
+      </c>
+      <c r="D35" s="65">
+        <v>1</v>
+      </c>
+      <c r="E35" s="65">
+        <v>100</v>
+      </c>
+      <c r="F35" s="65">
+        <v>195</v>
+      </c>
+      <c r="G35" s="65">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="42">
+        <v>32</v>
+      </c>
+      <c r="C36" s="65">
+        <v>7</v>
+      </c>
+      <c r="D36" s="65">
+        <v>3</v>
+      </c>
+      <c r="E36" s="65">
+        <v>100</v>
+      </c>
+      <c r="F36" s="65">
+        <v>185</v>
+      </c>
+      <c r="G36" s="65">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="42">
+        <v>33</v>
+      </c>
+      <c r="C37" s="65">
+        <v>7</v>
+      </c>
+      <c r="D37" s="65">
+        <v>5</v>
+      </c>
+      <c r="E37" s="65">
+        <v>100</v>
+      </c>
+      <c r="F37" s="65">
+        <v>175</v>
+      </c>
+      <c r="G37" s="65">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="42">
+        <v>34</v>
+      </c>
+      <c r="C38" s="65">
+        <v>7</v>
+      </c>
+      <c r="D38" s="65">
+        <v>7</v>
+      </c>
+      <c r="E38" s="65">
+        <v>100</v>
+      </c>
+      <c r="F38" s="65">
+        <v>165</v>
+      </c>
+      <c r="G38" s="65">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="42">
+        <v>35</v>
+      </c>
+      <c r="C39" s="65">
+        <v>7</v>
+      </c>
+      <c r="D39" s="65">
+        <v>9</v>
+      </c>
+      <c r="E39" s="65">
+        <v>100</v>
+      </c>
+      <c r="F39" s="65">
+        <v>155</v>
+      </c>
+      <c r="G39" s="65">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="42">
+        <v>36</v>
+      </c>
+      <c r="C40" s="65">
+        <v>8</v>
+      </c>
+      <c r="D40" s="65">
+        <v>2</v>
+      </c>
+      <c r="E40" s="65">
+        <v>120</v>
+      </c>
+      <c r="F40" s="65">
+        <v>284</v>
+      </c>
+      <c r="G40" s="65">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="42">
+        <v>37</v>
+      </c>
+      <c r="C41" s="65">
+        <v>8</v>
+      </c>
+      <c r="D41" s="65">
+        <v>4</v>
+      </c>
+      <c r="E41" s="65">
+        <v>120</v>
+      </c>
+      <c r="F41" s="65">
+        <v>268</v>
+      </c>
+      <c r="G41" s="65">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="42">
+        <v>38</v>
+      </c>
+      <c r="C42" s="65">
+        <v>8</v>
+      </c>
+      <c r="D42" s="65">
+        <v>6</v>
+      </c>
+      <c r="E42" s="65">
+        <v>120</v>
+      </c>
+      <c r="F42" s="65">
+        <v>252</v>
+      </c>
+      <c r="G42" s="65">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="42">
+        <v>39</v>
+      </c>
+      <c r="C43" s="65">
+        <v>8</v>
+      </c>
+      <c r="D43" s="65">
+        <v>8</v>
+      </c>
+      <c r="E43" s="65">
+        <v>120</v>
+      </c>
+      <c r="F43" s="65">
+        <v>236</v>
+      </c>
+      <c r="G43" s="65">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="42">
+        <v>40</v>
+      </c>
+      <c r="C44" s="65">
+        <v>8</v>
+      </c>
+      <c r="D44" s="65">
+        <v>10</v>
+      </c>
+      <c r="E44" s="65">
+        <v>120</v>
+      </c>
+      <c r="F44" s="65">
+        <v>220</v>
+      </c>
+      <c r="G44" s="65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="42">
+        <v>41</v>
+      </c>
+      <c r="C45" s="65">
+        <v>9</v>
+      </c>
+      <c r="D45" s="65">
+        <v>1</v>
+      </c>
+      <c r="E45" s="65">
+        <v>100</v>
+      </c>
+      <c r="F45" s="65">
+        <v>195</v>
+      </c>
+      <c r="G45" s="65">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="42">
+        <v>42</v>
+      </c>
+      <c r="C46" s="65">
+        <v>9</v>
+      </c>
+      <c r="D46" s="65">
+        <v>3</v>
+      </c>
+      <c r="E46" s="65">
+        <v>100</v>
+      </c>
+      <c r="F46" s="65">
+        <v>185</v>
+      </c>
+      <c r="G46" s="65">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="42">
+        <v>43</v>
+      </c>
+      <c r="C47" s="65">
+        <v>9</v>
+      </c>
+      <c r="D47" s="65">
+        <v>5</v>
+      </c>
+      <c r="E47" s="65">
+        <v>100</v>
+      </c>
+      <c r="F47" s="65">
+        <v>175</v>
+      </c>
+      <c r="G47" s="65">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="42">
+        <v>44</v>
+      </c>
+      <c r="C48" s="65">
+        <v>9</v>
+      </c>
+      <c r="D48" s="65">
+        <v>7</v>
+      </c>
+      <c r="E48" s="65">
+        <v>100</v>
+      </c>
+      <c r="F48" s="65">
+        <v>165</v>
+      </c>
+      <c r="G48" s="65">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="42">
+        <v>45</v>
+      </c>
+      <c r="C49" s="65">
+        <v>9</v>
+      </c>
+      <c r="D49" s="65">
+        <v>9</v>
+      </c>
+      <c r="E49" s="65">
+        <v>100</v>
+      </c>
+      <c r="F49" s="65">
+        <v>155</v>
+      </c>
+      <c r="G49" s="65">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="42">
+        <v>46</v>
+      </c>
+      <c r="C50" s="65">
+        <v>10</v>
+      </c>
+      <c r="D50" s="65">
+        <v>2</v>
+      </c>
+      <c r="E50" s="65">
+        <v>120</v>
+      </c>
+      <c r="F50" s="65">
+        <v>284</v>
+      </c>
+      <c r="G50" s="65">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="42">
+        <v>47</v>
+      </c>
+      <c r="C51" s="65">
+        <v>10</v>
+      </c>
+      <c r="D51" s="65">
+        <v>4</v>
+      </c>
+      <c r="E51" s="65">
+        <v>120</v>
+      </c>
+      <c r="F51" s="65">
+        <v>268</v>
+      </c>
+      <c r="G51" s="65">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="42">
+        <v>48</v>
+      </c>
+      <c r="C52" s="65">
+        <v>10</v>
+      </c>
+      <c r="D52" s="65">
+        <v>6</v>
+      </c>
+      <c r="E52" s="65">
+        <v>120</v>
+      </c>
+      <c r="F52" s="65">
+        <v>252</v>
+      </c>
+      <c r="G52" s="65">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="42">
+        <v>49</v>
+      </c>
+      <c r="C53" s="65">
+        <v>10</v>
+      </c>
+      <c r="D53" s="65">
+        <v>8</v>
+      </c>
+      <c r="E53" s="65">
+        <v>120</v>
+      </c>
+      <c r="F53" s="65">
+        <v>236</v>
+      </c>
+      <c r="G53" s="65">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="42">
+        <v>50</v>
+      </c>
+      <c r="C54" s="65">
+        <v>10</v>
+      </c>
+      <c r="D54" s="65">
+        <v>10</v>
+      </c>
+      <c r="E54" s="65">
+        <v>120</v>
+      </c>
+      <c r="F54" s="65">
+        <v>220</v>
+      </c>
+      <c r="G54" s="65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="42">
+        <v>51</v>
+      </c>
+      <c r="C55" s="65">
+        <v>11</v>
+      </c>
+      <c r="D55" s="65">
+        <v>1</v>
+      </c>
+      <c r="E55" s="65">
+        <v>100</v>
+      </c>
+      <c r="F55" s="65">
+        <v>195</v>
+      </c>
+      <c r="G55" s="65">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="42">
+        <v>52</v>
+      </c>
+      <c r="C56" s="65">
+        <v>11</v>
+      </c>
+      <c r="D56" s="65">
+        <v>3</v>
+      </c>
+      <c r="E56" s="65">
+        <v>100</v>
+      </c>
+      <c r="F56" s="65">
+        <v>185</v>
+      </c>
+      <c r="G56" s="65">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="42">
+        <v>53</v>
+      </c>
+      <c r="C57" s="65">
+        <v>11</v>
+      </c>
+      <c r="D57" s="65">
+        <v>5</v>
+      </c>
+      <c r="E57" s="65">
+        <v>100</v>
+      </c>
+      <c r="F57" s="65">
+        <v>175</v>
+      </c>
+      <c r="G57" s="65">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="42">
+        <v>54</v>
+      </c>
+      <c r="C58" s="65">
+        <v>11</v>
+      </c>
+      <c r="D58" s="65">
+        <v>7</v>
+      </c>
+      <c r="E58" s="65">
+        <v>100</v>
+      </c>
+      <c r="F58" s="65">
+        <v>165</v>
+      </c>
+      <c r="G58" s="65">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="42">
+        <v>55</v>
+      </c>
+      <c r="C59" s="65">
+        <v>11</v>
+      </c>
+      <c r="D59" s="65">
+        <v>9</v>
+      </c>
+      <c r="E59" s="65">
+        <v>100</v>
+      </c>
+      <c r="F59" s="65">
+        <v>155</v>
+      </c>
+      <c r="G59" s="65">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="42">
+        <v>56</v>
+      </c>
+      <c r="C60" s="65">
+        <v>12</v>
+      </c>
+      <c r="D60" s="65">
+        <v>2</v>
+      </c>
+      <c r="E60" s="65">
+        <v>120</v>
+      </c>
+      <c r="F60" s="65">
+        <v>284</v>
+      </c>
+      <c r="G60" s="65">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="42">
+        <v>57</v>
+      </c>
+      <c r="C61" s="65">
+        <v>12</v>
+      </c>
+      <c r="D61" s="65">
+        <v>4</v>
+      </c>
+      <c r="E61" s="65">
+        <v>120</v>
+      </c>
+      <c r="F61" s="65">
+        <v>268</v>
+      </c>
+      <c r="G61" s="65">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="42">
+        <v>58</v>
+      </c>
+      <c r="C62" s="65">
+        <v>12</v>
+      </c>
+      <c r="D62" s="65">
+        <v>6</v>
+      </c>
+      <c r="E62" s="65">
+        <v>120</v>
+      </c>
+      <c r="F62" s="65">
+        <v>252</v>
+      </c>
+      <c r="G62" s="65">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="42">
+        <v>59</v>
+      </c>
+      <c r="C63" s="65">
+        <v>12</v>
+      </c>
+      <c r="D63" s="65">
+        <v>8</v>
+      </c>
+      <c r="E63" s="65">
+        <v>120</v>
+      </c>
+      <c r="F63" s="65">
+        <v>236</v>
+      </c>
+      <c r="G63" s="65">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="42">
+        <v>60</v>
+      </c>
+      <c r="C64" s="65">
+        <v>12</v>
+      </c>
+      <c r="D64" s="65">
+        <v>10</v>
+      </c>
+      <c r="E64" s="65">
+        <v>120</v>
+      </c>
+      <c r="F64" s="65">
+        <v>220</v>
+      </c>
+      <c r="G64" s="65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="42">
+        <v>61</v>
+      </c>
+      <c r="C65" s="65">
+        <v>13</v>
+      </c>
+      <c r="D65" s="65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="65">
+        <v>100</v>
+      </c>
+      <c r="F65" s="65">
+        <v>195</v>
+      </c>
+      <c r="G65" s="65">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="42">
+        <v>62</v>
+      </c>
+      <c r="C66" s="65">
+        <v>13</v>
+      </c>
+      <c r="D66" s="65">
+        <v>3</v>
+      </c>
+      <c r="E66" s="65">
+        <v>100</v>
+      </c>
+      <c r="F66" s="65">
+        <v>185</v>
+      </c>
+      <c r="G66" s="65">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="42">
+        <v>63</v>
+      </c>
+      <c r="C67" s="65">
+        <v>13</v>
+      </c>
+      <c r="D67" s="65">
+        <v>5</v>
+      </c>
+      <c r="E67" s="65">
+        <v>100</v>
+      </c>
+      <c r="F67" s="65">
+        <v>175</v>
+      </c>
+      <c r="G67" s="65">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="42">
+        <v>64</v>
+      </c>
+      <c r="C68" s="65">
+        <v>13</v>
+      </c>
+      <c r="D68" s="65">
+        <v>7</v>
+      </c>
+      <c r="E68" s="65">
+        <v>100</v>
+      </c>
+      <c r="F68" s="65">
+        <v>165</v>
+      </c>
+      <c r="G68" s="65">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="42">
+        <v>65</v>
+      </c>
+      <c r="C69" s="65">
+        <v>13</v>
+      </c>
+      <c r="D69" s="65">
+        <v>9</v>
+      </c>
+      <c r="E69" s="65">
+        <v>100</v>
+      </c>
+      <c r="F69" s="65">
+        <v>155</v>
+      </c>
+      <c r="G69" s="65">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="42">
+        <v>66</v>
+      </c>
+      <c r="C70" s="65">
+        <v>14</v>
+      </c>
+      <c r="D70" s="65">
+        <v>2</v>
+      </c>
+      <c r="E70" s="65">
+        <v>120</v>
+      </c>
+      <c r="F70" s="65">
+        <v>284</v>
+      </c>
+      <c r="G70" s="65">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="42">
+        <v>67</v>
+      </c>
+      <c r="C71" s="65">
+        <v>14</v>
+      </c>
+      <c r="D71" s="65">
+        <v>4</v>
+      </c>
+      <c r="E71" s="65">
+        <v>120</v>
+      </c>
+      <c r="F71" s="65">
+        <v>268</v>
+      </c>
+      <c r="G71" s="65">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="42">
+        <v>68</v>
+      </c>
+      <c r="C72" s="65">
+        <v>14</v>
+      </c>
+      <c r="D72" s="65">
+        <v>6</v>
+      </c>
+      <c r="E72" s="65">
+        <v>120</v>
+      </c>
+      <c r="F72" s="65">
+        <v>252</v>
+      </c>
+      <c r="G72" s="65">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="42">
+        <v>69</v>
+      </c>
+      <c r="C73" s="65">
+        <v>14</v>
+      </c>
+      <c r="D73" s="65">
+        <v>8</v>
+      </c>
+      <c r="E73" s="65">
+        <v>120</v>
+      </c>
+      <c r="F73" s="65">
+        <v>236</v>
+      </c>
+      <c r="G73" s="65">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="42">
+        <v>70</v>
+      </c>
+      <c r="C74" s="65">
+        <v>14</v>
+      </c>
+      <c r="D74" s="65">
+        <v>10</v>
+      </c>
+      <c r="E74" s="65">
+        <v>120</v>
+      </c>
+      <c r="F74" s="65">
+        <v>220</v>
+      </c>
+      <c r="G74" s="65">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCB47F1-47F6-465E-B630-D2798832E8F0}">
+  <dimension ref="B1:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="29" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="67">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="67">
+        <v>2</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="67">
+        <v>3</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="67">
+        <v>4</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5AA7CD-82CF-44C8-A1A7-311DEFCAEBE6}">
+  <dimension ref="B1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="67">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="67">
+        <v>2</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="67">
+        <v>3</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="67">
+        <v>4</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="67">
+        <v>5</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S60"/>
@@ -3382,7 +7440,7 @@
   <dimension ref="A1:W118"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D6" sqref="D6:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -4790,8 +8848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79120E3-8B85-45B8-906C-9F3770585442}">
   <dimension ref="A1:Y142"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -4808,7 +8866,7 @@
     <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="28.5703125" style="1" customWidth="1"/>
     <col min="14" max="17" width="22.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
     <col min="19" max="107" width="22.7109375" style="1" customWidth="1"/>
     <col min="108" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -4859,21 +8917,11 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
     </row>
     <row r="5" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
@@ -4885,61 +8933,44 @@
       <c r="D5" s="18" t="s">
         <v>31</v>
       </c>
+      <c r="E5" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="I5" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="11"/>
     </row>
     <row r="6" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44" t="s">
@@ -4978,11 +9009,14 @@
       <c r="M6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
     </row>
     <row r="7" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
@@ -5021,11 +9055,14 @@
       <c r="M7" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
     </row>
     <row r="8" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="s">
@@ -5064,11 +9101,14 @@
       <c r="M8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5101,9 +9141,12 @@
       <c r="L9" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="S9" s="3"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
     </row>
     <row r="10" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="46" t="s">
@@ -5136,9 +9179,12 @@
         <v>86</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
       <c r="W10" s="9"/>
       <c r="X10" s="10"/>
     </row>
@@ -5166,9 +9212,12 @@
         <v>134</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
     </row>
     <row r="12" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
@@ -5185,9 +9234,12 @@
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
     </row>
     <row r="13" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
@@ -5202,9 +9254,12 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
       <c r="W13" s="12"/>
     </row>
     <row r="14" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5220,9 +9275,12 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
       <c r="W14" s="9"/>
       <c r="X14" s="10"/>
     </row>
@@ -5239,9 +9297,12 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
       <c r="W15" s="9"/>
       <c r="X15" s="10"/>
     </row>
@@ -5258,9 +9319,12 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
       <c r="W16" s="9"/>
       <c r="X16" s="10"/>
     </row>
@@ -5277,9 +9341,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
       <c r="W17" s="9"/>
       <c r="X17" s="10"/>
     </row>
@@ -5296,9 +9363,12 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
     </row>
     <row r="19" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -5313,9 +9383,12 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
     </row>
     <row r="20" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -6566,6 +10639,7 @@
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="C111:D111"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6576,7 +10650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -6718,7 +10792,7 @@
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6795,4 +10869,1045 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BF5BE8-88FD-456B-910E-E97BE4DBD244}">
+  <dimension ref="B1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="29" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="66">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="G5" s="66">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="66">
+        <v>2</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="G6" s="66">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="66">
+        <v>3</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="G7" s="66">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="66">
+        <v>4</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="G8" s="66">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="66">
+        <v>5</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="66">
+        <v>123456789</v>
+      </c>
+      <c r="G9" s="66">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D22D38-C3E1-449B-A578-E51941E8C3BB}">
+  <dimension ref="B1:K44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="30" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="73"/>
+    </row>
+    <row r="4" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="66">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="66">
+        <v>195</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5" s="66">
+        <v>1</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="63">
+        <v>1</v>
+      </c>
+      <c r="K5" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="66">
+        <v>2</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="66">
+        <v>185</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="G6" s="66">
+        <v>3</v>
+      </c>
+      <c r="H6" s="63"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="63">
+        <v>1</v>
+      </c>
+      <c r="K6" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="66">
+        <v>3</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="66">
+        <v>175</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="G7" s="66">
+        <v>3</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="63">
+        <v>3</v>
+      </c>
+      <c r="K7" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="66">
+        <v>4</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="66">
+        <v>165</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" s="66">
+        <v>3</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="63">
+        <v>3</v>
+      </c>
+      <c r="K8" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="66">
+        <v>5</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="66">
+        <v>155</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="66">
+        <v>5</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="63">
+        <v>3</v>
+      </c>
+      <c r="K9" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="66">
+        <v>6</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="66">
+        <v>284</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="66">
+        <v>5</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="63">
+        <v>5</v>
+      </c>
+      <c r="K10" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="66">
+        <v>7</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="66">
+        <v>268</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" s="66">
+        <v>4</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="63">
+        <v>5</v>
+      </c>
+      <c r="K11" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="66">
+        <v>8</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="66">
+        <v>252</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12" s="66">
+        <v>5</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="63">
+        <v>4</v>
+      </c>
+      <c r="K12" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="66">
+        <v>9</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" s="66">
+        <v>236</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" s="66">
+        <v>6</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="63">
+        <v>5</v>
+      </c>
+      <c r="K13" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="66">
+        <v>10</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="66">
+        <v>220</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="G14" s="66">
+        <v>6</v>
+      </c>
+      <c r="H14" s="63"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="63">
+        <v>6</v>
+      </c>
+      <c r="K14" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="66">
+        <v>11</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="66">
+        <v>195</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="G15" s="66">
+        <v>2</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="63">
+        <v>6</v>
+      </c>
+      <c r="K15" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="66">
+        <v>12</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" s="66">
+        <v>185</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="66">
+        <v>2</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="63">
+        <v>2</v>
+      </c>
+      <c r="K16" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="66">
+        <v>13</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="E17" s="66">
+        <v>175</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="66">
+        <v>2</v>
+      </c>
+      <c r="H17" s="63"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="63">
+        <v>2</v>
+      </c>
+      <c r="K17" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="66">
+        <v>14</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18" s="66">
+        <v>165</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="G18" s="66">
+        <v>2</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="63">
+        <v>2</v>
+      </c>
+      <c r="K18" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="63"/>
+    </row>
+    <row r="20" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D4CFE8-51EF-47E0-B543-864DD365CD6F}">
+  <dimension ref="B1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="29" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="67">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="67">
+        <v>20</v>
+      </c>
+      <c r="E5" s="69">
+        <v>45116.920162037037</v>
+      </c>
+      <c r="F5" s="67">
+        <v>1</v>
+      </c>
+      <c r="G5" s="67">
+        <v>1</v>
+      </c>
+      <c r="H5" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="67">
+        <v>2</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="67">
+        <v>20</v>
+      </c>
+      <c r="E6" s="69">
+        <v>45114.920162037037</v>
+      </c>
+      <c r="F6" s="67">
+        <v>1</v>
+      </c>
+      <c r="G6" s="67">
+        <v>1</v>
+      </c>
+      <c r="H6" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="67">
+        <v>3</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="67">
+        <v>20</v>
+      </c>
+      <c r="E7" s="69">
+        <v>45115.920162037037</v>
+      </c>
+      <c r="F7" s="67">
+        <v>1</v>
+      </c>
+      <c r="G7" s="67">
+        <v>2</v>
+      </c>
+      <c r="H7" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="67">
+        <v>4</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="67">
+        <v>30</v>
+      </c>
+      <c r="E8" s="69">
+        <v>44972.920162037037</v>
+      </c>
+      <c r="F8" s="67">
+        <v>2</v>
+      </c>
+      <c r="G8" s="70">
+        <v>3</v>
+      </c>
+      <c r="H8" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="67">
+        <v>5</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="67">
+        <v>30</v>
+      </c>
+      <c r="E9" s="69">
+        <v>44972.920162037037</v>
+      </c>
+      <c r="F9" s="67">
+        <v>3</v>
+      </c>
+      <c r="G9" s="70">
+        <v>2</v>
+      </c>
+      <c r="H9" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="67">
+        <v>6</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="67">
+        <v>20</v>
+      </c>
+      <c r="E10" s="69">
+        <v>45116.920162037037</v>
+      </c>
+      <c r="F10" s="67">
+        <v>1</v>
+      </c>
+      <c r="G10" s="70">
+        <v>3</v>
+      </c>
+      <c r="H10" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="67">
+        <v>7</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="67">
+        <v>40</v>
+      </c>
+      <c r="E11" s="69">
+        <v>45272.920162037037</v>
+      </c>
+      <c r="F11" s="67">
+        <v>2</v>
+      </c>
+      <c r="G11" s="70">
+        <v>4</v>
+      </c>
+      <c r="H11" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="67">
+        <v>8</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" s="67">
+        <v>20</v>
+      </c>
+      <c r="E12" s="69">
+        <v>45116.920162037037</v>
+      </c>
+      <c r="F12" s="67">
+        <v>3</v>
+      </c>
+      <c r="G12" s="70">
+        <v>5</v>
+      </c>
+      <c r="H12" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="67">
+        <v>9</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="67">
+        <v>50</v>
+      </c>
+      <c r="E13" s="69">
+        <v>45116.920162037037</v>
+      </c>
+      <c r="F13" s="67">
+        <v>3</v>
+      </c>
+      <c r="G13" s="70">
+        <v>2</v>
+      </c>
+      <c r="H13" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="67">
+        <v>10</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="67">
+        <v>20</v>
+      </c>
+      <c r="E14" s="69">
+        <v>45116.920162037037</v>
+      </c>
+      <c r="F14" s="67">
+        <v>2</v>
+      </c>
+      <c r="G14" s="70">
+        <v>2</v>
+      </c>
+      <c r="H14" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="67">
+        <v>11</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" s="67">
+        <v>10</v>
+      </c>
+      <c r="E15" s="69">
+        <v>45086.920162037037</v>
+      </c>
+      <c r="F15" s="67">
+        <v>2</v>
+      </c>
+      <c r="G15" s="70">
+        <v>1</v>
+      </c>
+      <c r="H15" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="67">
+        <v>12</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="67">
+        <v>20</v>
+      </c>
+      <c r="E16" s="69">
+        <v>45116.920162037037</v>
+      </c>
+      <c r="F16" s="67">
+        <v>1</v>
+      </c>
+      <c r="G16" s="70">
+        <v>1</v>
+      </c>
+      <c r="H16" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+    </row>
+    <row r="18" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
+    </row>
+    <row r="19" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+    </row>
+    <row r="20" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+    </row>
+    <row r="22" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+    </row>
+    <row r="23" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
+    </row>
+    <row r="24" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
+    </row>
+    <row r="25" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="64"/>
+    </row>
+    <row r="26" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+    </row>
+    <row r="27" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
+    </row>
+    <row r="28" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+    </row>
+    <row r="29" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1. Database Design/JAVA 19 20 - Quyen Phan - Database Design.xlsx
+++ b/1. Database Design/JAVA 19 20 - Quyen Phan - Database Design.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE88569D-0A9F-4EDF-B4E4-B70AF7B7C3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E895BA-B6EF-4227-A7D9-DFA141F44584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="883" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="883" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={CC6392E2-5211-4B01-B450-86C3CE187AF0}</author>
-    <author>tc={60541A29-CE40-4DB1-8BB5-16B611C50CD0}</author>
     <author>tc={F6ED8CED-41F2-4A8C-8910-66C78FFEAB6B}</author>
   </authors>
   <commentList>
@@ -336,15 +335,7 @@
     Amount of items still in warehouse</t>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{60541A29-CE40-4DB1-8BB5-16B611C50CD0}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Amount of items still in warehouse</t>
-      </text>
-    </comment>
-    <comment ref="G4" authorId="2" shapeId="0" xr:uid="{F6ED8CED-41F2-4A8C-8910-66C78FFEAB6B}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{F6ED8CED-41F2-4A8C-8910-66C78FFEAB6B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -357,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="393">
   <si>
     <t>Xác định các đối tượng cần lưu trữ
 Xác định các thuộc tính, thông tin của từng đối tượng</t>
@@ -1395,9 +1386,6 @@
     <t>Bộ phận giao hàng</t>
   </si>
   <si>
-    <t>Bộ phận giảm sát</t>
-  </si>
-  <si>
     <t>Bộ phận quảng cáo</t>
   </si>
   <si>
@@ -1479,9 +1467,6 @@
     <t>Địa chỉ 12</t>
   </si>
   <si>
-    <t>DELIVERY_ADDRESS</t>
-  </si>
-  <si>
     <t>Nhân viên A</t>
   </si>
   <si>
@@ -1698,14 +1683,53 @@
     <t>-- common table expression</t>
   </si>
   <si>
-    <t>BUY_PRICE x</t>
+    <t>T01 x</t>
+  </si>
+  <si>
+    <t>T06 x</t>
+  </si>
+  <si>
+    <t>T05 x</t>
+  </si>
+  <si>
+    <t>T10 x</t>
+  </si>
+  <si>
+    <t>Bộ phận giám sát</t>
+  </si>
+  <si>
+    <t>T02 x</t>
+  </si>
+  <si>
+    <t>DELIVERY_ADDRESS x</t>
+  </si>
+  <si>
+    <t>15/2/2023  10:05</t>
+  </si>
+  <si>
+    <t>T03 x</t>
+  </si>
+  <si>
+    <t>-- ITEM_ID lẻ --&gt; bán cho tất cả size lẻ, số lượng 100, giá bán = 200 + 10 * SIZE</t>
+  </si>
+  <si>
+    <t>T09x</t>
+  </si>
+  <si>
+    <t>T11x</t>
+  </si>
+  <si>
+    <t>T12x</t>
+  </si>
+  <si>
+    <t>T13x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1801,12 +1825,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1913,7 +1931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2048,6 +2066,49 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2072,64 +2133,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2145,10 +2148,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2473,10 +2472,7 @@
   <threadedComment ref="E4" dT="2023-11-10T14:20:56.11" personId="{00000000-0000-0000-0000-000000000000}" id="{CC6392E2-5211-4B01-B450-86C3CE187AF0}">
     <text>Amount of items still in warehouse</text>
   </threadedComment>
-  <threadedComment ref="F4" dT="2023-11-10T14:20:56.11" personId="{00000000-0000-0000-0000-000000000000}" id="{60541A29-CE40-4DB1-8BB5-16B611C50CD0}">
-    <text>Amount of items still in warehouse</text>
-  </threadedComment>
-  <threadedComment ref="G4" dT="2023-11-13T13:18:41.94" personId="{00000000-0000-0000-0000-000000000000}" id="{F6ED8CED-41F2-4A8C-8910-66C78FFEAB6B}">
+  <threadedComment ref="F4" dT="2023-11-13T13:18:41.94" personId="{00000000-0000-0000-0000-000000000000}" id="{F6ED8CED-41F2-4A8C-8910-66C78FFEAB6B}">
     <text>Sales price of item, size</text>
   </threadedComment>
 </ThreadedComments>
@@ -2508,21 +2504,21 @@
   <sheetData>
     <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="G2" s="52" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="G2" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2540,9 +2536,9 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2969,7 +2965,7 @@
   <dimension ref="B1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,13 +3003,13 @@
       <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="66">
-        <v>1</v>
-      </c>
-      <c r="D5" s="66">
+      <c r="C5" s="56">
+        <v>1</v>
+      </c>
+      <c r="D5" s="56">
         <v>4</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3021,13 +3017,13 @@
       <c r="B6" s="43">
         <v>2</v>
       </c>
-      <c r="C6" s="66">
-        <v>1</v>
-      </c>
-      <c r="D6" s="66">
+      <c r="C6" s="56">
+        <v>1</v>
+      </c>
+      <c r="D6" s="56">
         <v>31</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="56">
         <v>5</v>
       </c>
     </row>
@@ -3035,13 +3031,13 @@
       <c r="B7" s="43">
         <v>3</v>
       </c>
-      <c r="C7" s="66">
-        <v>1</v>
-      </c>
-      <c r="D7" s="66">
+      <c r="C7" s="56">
+        <v>1</v>
+      </c>
+      <c r="D7" s="56">
         <v>49</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="56">
         <v>1</v>
       </c>
     </row>
@@ -3049,13 +3045,13 @@
       <c r="B8" s="43">
         <v>4</v>
       </c>
-      <c r="C8" s="66">
-        <v>1</v>
-      </c>
-      <c r="D8" s="66">
+      <c r="C8" s="56">
+        <v>1</v>
+      </c>
+      <c r="D8" s="56">
         <v>68</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3063,13 +3059,13 @@
       <c r="B9" s="43">
         <v>5</v>
       </c>
-      <c r="C9" s="66">
-        <v>2</v>
-      </c>
-      <c r="D9" s="66">
+      <c r="C9" s="56">
+        <v>2</v>
+      </c>
+      <c r="D9" s="56">
         <v>39</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3077,13 +3073,13 @@
       <c r="B10" s="43">
         <v>6</v>
       </c>
-      <c r="C10" s="66">
-        <v>2</v>
-      </c>
-      <c r="D10" s="66">
+      <c r="C10" s="56">
+        <v>2</v>
+      </c>
+      <c r="D10" s="56">
         <v>48</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3091,13 +3087,13 @@
       <c r="B11" s="43">
         <v>7</v>
       </c>
-      <c r="C11" s="66">
-        <v>2</v>
-      </c>
-      <c r="D11" s="66">
+      <c r="C11" s="56">
+        <v>2</v>
+      </c>
+      <c r="D11" s="56">
         <v>50</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="56">
         <v>12</v>
       </c>
     </row>
@@ -3105,13 +3101,13 @@
       <c r="B12" s="43">
         <v>8</v>
       </c>
-      <c r="C12" s="66">
-        <v>2</v>
-      </c>
-      <c r="D12" s="66">
+      <c r="C12" s="56">
+        <v>2</v>
+      </c>
+      <c r="D12" s="56">
         <v>53</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="56">
         <v>3</v>
       </c>
     </row>
@@ -3119,13 +3115,13 @@
       <c r="B13" s="43">
         <v>9</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="56">
         <v>3</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="56">
         <v>21</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3133,13 +3129,13 @@
       <c r="B14" s="43">
         <v>10</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="56">
         <v>3</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="56">
         <v>22</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3147,13 +3143,13 @@
       <c r="B15" s="43">
         <v>11</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="56">
         <v>3</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="56">
         <v>39</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3161,13 +3157,13 @@
       <c r="B16" s="43">
         <v>12</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="56">
         <v>3</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="56">
         <v>49</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="56">
         <v>11</v>
       </c>
     </row>
@@ -3175,13 +3171,13 @@
       <c r="B17" s="43">
         <v>13</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="56">
         <v>4</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="56">
         <v>11</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3189,13 +3185,13 @@
       <c r="B18" s="43">
         <v>14</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="56">
         <v>4</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="56">
         <v>41</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="56">
         <v>3</v>
       </c>
     </row>
@@ -3203,13 +3199,13 @@
       <c r="B19" s="43">
         <v>15</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="56">
         <v>4</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="56">
         <v>46</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="56">
         <v>3</v>
       </c>
     </row>
@@ -3217,13 +3213,13 @@
       <c r="B20" s="43">
         <v>16</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="56">
         <v>4</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="56">
         <v>69</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="56">
         <v>3</v>
       </c>
     </row>
@@ -3231,13 +3227,13 @@
       <c r="B21" s="43">
         <v>17</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="56">
         <v>5</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="56">
         <v>5</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="56">
         <v>3</v>
       </c>
     </row>
@@ -3245,13 +3241,13 @@
       <c r="B22" s="43">
         <v>18</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="56">
         <v>5</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="56">
         <v>24</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3259,13 +3255,13 @@
       <c r="B23" s="43">
         <v>19</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="56">
         <v>5</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="56">
         <v>39</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="56">
         <v>8</v>
       </c>
     </row>
@@ -3273,13 +3269,13 @@
       <c r="B24" s="43">
         <v>20</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="56">
         <v>5</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="56">
         <v>56</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E24" s="56">
         <v>8</v>
       </c>
     </row>
@@ -3287,13 +3283,13 @@
       <c r="B25" s="43">
         <v>21</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="56">
         <v>6</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="56">
         <v>10</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3301,13 +3297,13 @@
       <c r="B26" s="43">
         <v>22</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="56">
         <v>6</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="56">
         <v>23</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="56">
         <v>9</v>
       </c>
     </row>
@@ -3315,13 +3311,13 @@
       <c r="B27" s="43">
         <v>23</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="56">
         <v>6</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="56">
         <v>29</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E27" s="56">
         <v>3</v>
       </c>
     </row>
@@ -3329,13 +3325,13 @@
       <c r="B28" s="43">
         <v>24</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="56">
         <v>6</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="56">
         <v>30</v>
       </c>
-      <c r="E28" s="66">
+      <c r="E28" s="56">
         <v>11</v>
       </c>
     </row>
@@ -3343,13 +3339,13 @@
       <c r="B29" s="43">
         <v>25</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="56">
         <v>7</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="56">
         <v>17</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3357,13 +3353,13 @@
       <c r="B30" s="43">
         <v>26</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="56">
         <v>7</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="56">
         <v>43</v>
       </c>
-      <c r="E30" s="66">
+      <c r="E30" s="56">
         <v>15</v>
       </c>
     </row>
@@ -3371,13 +3367,13 @@
       <c r="B31" s="43">
         <v>27</v>
       </c>
-      <c r="C31" s="66">
+      <c r="C31" s="56">
         <v>7</v>
       </c>
-      <c r="D31" s="66">
+      <c r="D31" s="56">
         <v>54</v>
       </c>
-      <c r="E31" s="66">
+      <c r="E31" s="56">
         <v>10</v>
       </c>
     </row>
@@ -3385,13 +3381,13 @@
       <c r="B32" s="43">
         <v>28</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="56">
         <v>7</v>
       </c>
-      <c r="D32" s="66">
+      <c r="D32" s="56">
         <v>57</v>
       </c>
-      <c r="E32" s="66">
+      <c r="E32" s="56">
         <v>5</v>
       </c>
     </row>
@@ -3399,13 +3395,13 @@
       <c r="B33" s="43">
         <v>29</v>
       </c>
-      <c r="C33" s="66">
+      <c r="C33" s="56">
         <v>8</v>
       </c>
-      <c r="D33" s="66">
+      <c r="D33" s="56">
         <v>8</v>
       </c>
-      <c r="E33" s="66">
+      <c r="E33" s="56">
         <v>20</v>
       </c>
     </row>
@@ -3413,13 +3409,13 @@
       <c r="B34" s="43">
         <v>30</v>
       </c>
-      <c r="C34" s="66">
+      <c r="C34" s="56">
         <v>8</v>
       </c>
-      <c r="D34" s="66">
+      <c r="D34" s="56">
         <v>18</v>
       </c>
-      <c r="E34" s="66">
+      <c r="E34" s="56">
         <v>7</v>
       </c>
     </row>
@@ -3427,13 +3423,13 @@
       <c r="B35" s="43">
         <v>31</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="56">
         <v>8</v>
       </c>
-      <c r="D35" s="66">
+      <c r="D35" s="56">
         <v>59</v>
       </c>
-      <c r="E35" s="66">
+      <c r="E35" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3441,13 +3437,13 @@
       <c r="B36" s="43">
         <v>32</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="56">
         <v>8</v>
       </c>
-      <c r="D36" s="66">
+      <c r="D36" s="56">
         <v>65</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="56">
         <v>9</v>
       </c>
     </row>
@@ -3455,13 +3451,13 @@
       <c r="B37" s="43">
         <v>33</v>
       </c>
-      <c r="C37" s="66">
+      <c r="C37" s="56">
         <v>9</v>
       </c>
-      <c r="D37" s="66">
+      <c r="D37" s="56">
         <v>29</v>
       </c>
-      <c r="E37" s="66">
+      <c r="E37" s="56">
         <v>10</v>
       </c>
     </row>
@@ -3469,13 +3465,13 @@
       <c r="B38" s="43">
         <v>34</v>
       </c>
-      <c r="C38" s="66">
+      <c r="C38" s="56">
         <v>9</v>
       </c>
-      <c r="D38" s="66">
+      <c r="D38" s="56">
         <v>34</v>
       </c>
-      <c r="E38" s="66">
+      <c r="E38" s="56">
         <v>1</v>
       </c>
     </row>
@@ -3483,13 +3479,13 @@
       <c r="B39" s="43">
         <v>35</v>
       </c>
-      <c r="C39" s="66">
+      <c r="C39" s="56">
         <v>9</v>
       </c>
-      <c r="D39" s="66">
+      <c r="D39" s="56">
         <v>38</v>
       </c>
-      <c r="E39" s="66">
+      <c r="E39" s="56">
         <v>7</v>
       </c>
     </row>
@@ -3497,13 +3493,13 @@
       <c r="B40" s="43">
         <v>36</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="56">
         <v>9</v>
       </c>
-      <c r="D40" s="66">
+      <c r="D40" s="56">
         <v>53</v>
       </c>
-      <c r="E40" s="66">
+      <c r="E40" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3511,13 +3507,13 @@
       <c r="B41" s="43">
         <v>37</v>
       </c>
-      <c r="C41" s="66">
+      <c r="C41" s="56">
         <v>10</v>
       </c>
-      <c r="D41" s="66">
+      <c r="D41" s="56">
         <v>22</v>
       </c>
-      <c r="E41" s="66">
+      <c r="E41" s="56">
         <v>10</v>
       </c>
     </row>
@@ -3525,13 +3521,13 @@
       <c r="B42" s="43">
         <v>38</v>
       </c>
-      <c r="C42" s="66">
+      <c r="C42" s="56">
         <v>10</v>
       </c>
-      <c r="D42" s="66">
+      <c r="D42" s="56">
         <v>24</v>
       </c>
-      <c r="E42" s="66">
+      <c r="E42" s="56">
         <v>10</v>
       </c>
     </row>
@@ -3539,13 +3535,13 @@
       <c r="B43" s="43">
         <v>39</v>
       </c>
-      <c r="C43" s="66">
+      <c r="C43" s="56">
         <v>10</v>
       </c>
-      <c r="D43" s="66">
+      <c r="D43" s="56">
         <v>40</v>
       </c>
-      <c r="E43" s="66">
+      <c r="E43" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3553,13 +3549,13 @@
       <c r="B44" s="43">
         <v>40</v>
       </c>
-      <c r="C44" s="66">
+      <c r="C44" s="56">
         <v>10</v>
       </c>
-      <c r="D44" s="66">
+      <c r="D44" s="56">
         <v>50</v>
       </c>
-      <c r="E44" s="66">
+      <c r="E44" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3567,13 +3563,13 @@
       <c r="B45" s="43">
         <v>41</v>
       </c>
-      <c r="C45" s="66">
+      <c r="C45" s="56">
         <v>11</v>
       </c>
-      <c r="D45" s="66">
+      <c r="D45" s="56">
         <v>37</v>
       </c>
-      <c r="E45" s="66">
+      <c r="E45" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3581,13 +3577,13 @@
       <c r="B46" s="43">
         <v>42</v>
       </c>
-      <c r="C46" s="66">
+      <c r="C46" s="56">
         <v>11</v>
       </c>
-      <c r="D46" s="66">
+      <c r="D46" s="56">
         <v>38</v>
       </c>
-      <c r="E46" s="66">
+      <c r="E46" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3595,13 +3591,13 @@
       <c r="B47" s="43">
         <v>43</v>
       </c>
-      <c r="C47" s="66">
+      <c r="C47" s="56">
         <v>11</v>
       </c>
-      <c r="D47" s="66">
+      <c r="D47" s="56">
         <v>48</v>
       </c>
-      <c r="E47" s="66">
+      <c r="E47" s="56">
         <v>11</v>
       </c>
     </row>
@@ -3609,13 +3605,13 @@
       <c r="B48" s="43">
         <v>44</v>
       </c>
-      <c r="C48" s="66">
+      <c r="C48" s="56">
         <v>11</v>
       </c>
-      <c r="D48" s="66">
+      <c r="D48" s="56">
         <v>51</v>
       </c>
-      <c r="E48" s="66">
+      <c r="E48" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3623,13 +3619,13 @@
       <c r="B49" s="43">
         <v>45</v>
       </c>
-      <c r="C49" s="66">
+      <c r="C49" s="56">
         <v>12</v>
       </c>
-      <c r="D49" s="66">
-        <v>1</v>
-      </c>
-      <c r="E49" s="66">
+      <c r="D49" s="56">
+        <v>1</v>
+      </c>
+      <c r="E49" s="56">
         <v>12</v>
       </c>
     </row>
@@ -3637,13 +3633,13 @@
       <c r="B50" s="43">
         <v>46</v>
       </c>
-      <c r="C50" s="66">
+      <c r="C50" s="56">
         <v>12</v>
       </c>
-      <c r="D50" s="66">
+      <c r="D50" s="56">
         <v>29</v>
       </c>
-      <c r="E50" s="66">
+      <c r="E50" s="56">
         <v>2</v>
       </c>
     </row>
@@ -3651,13 +3647,13 @@
       <c r="B51" s="43">
         <v>47</v>
       </c>
-      <c r="C51" s="66">
+      <c r="C51" s="56">
         <v>12</v>
       </c>
-      <c r="D51" s="66">
+      <c r="D51" s="56">
         <v>35</v>
       </c>
-      <c r="E51" s="66">
+      <c r="E51" s="56">
         <v>1</v>
       </c>
     </row>
@@ -3665,13 +3661,13 @@
       <c r="B52" s="43">
         <v>48</v>
       </c>
-      <c r="C52" s="66">
+      <c r="C52" s="56">
         <v>12</v>
       </c>
-      <c r="D52" s="66">
+      <c r="D52" s="56">
         <v>42</v>
       </c>
-      <c r="E52" s="66">
+      <c r="E52" s="56">
         <v>3</v>
       </c>
     </row>
@@ -3684,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E3B674-9472-47F5-A3BC-B1D201A64037}">
   <dimension ref="B1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3707,7 +3703,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>142</v>
@@ -3717,143 +3713,143 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67">
-        <v>1</v>
-      </c>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="57">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="57">
         <v>0</v>
       </c>
-      <c r="E5" s="67" t="s">
-        <v>295</v>
+      <c r="E5" s="57" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="67">
-        <v>2</v>
-      </c>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="57">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="67">
-        <v>1</v>
-      </c>
-      <c r="E6" s="67" t="s">
+      <c r="D6" s="57">
+        <v>1</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="57">
+        <v>3</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="57">
+        <v>0</v>
+      </c>
+      <c r="E7" s="57" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67">
-        <v>3</v>
-      </c>
-      <c r="C7" s="67" t="s">
+    <row r="8" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="57">
+        <v>4</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D8" s="57">
+        <v>1</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="57">
+        <v>5</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="57">
         <v>0</v>
       </c>
-      <c r="E7" s="67" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67">
-        <v>4</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="67">
-        <v>1</v>
-      </c>
-      <c r="E8" s="67" t="s">
+      <c r="E9" s="57" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="67">
-        <v>5</v>
-      </c>
-      <c r="C9" s="67" t="s">
+    <row r="10" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="57">
+        <v>6</v>
+      </c>
+      <c r="C10" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D10" s="57">
+        <v>1</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="57">
+        <v>7</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="57">
         <v>0</v>
       </c>
-      <c r="E9" s="67" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="67">
-        <v>6</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="67">
-        <v>1</v>
-      </c>
-      <c r="E10" s="67" t="s">
+      <c r="E11" s="57" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="67">
-        <v>7</v>
-      </c>
-      <c r="C11" s="67" t="s">
+    <row r="12" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="57">
+        <v>8</v>
+      </c>
+      <c r="C12" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D12" s="57">
+        <v>1</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="57">
+        <v>9</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="57">
         <v>0</v>
       </c>
-      <c r="E11" s="67" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67">
-        <v>8</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="67">
-        <v>1</v>
-      </c>
-      <c r="E12" s="67" t="s">
+      <c r="E13" s="57" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67">
-        <v>9</v>
-      </c>
-      <c r="C13" s="67" t="s">
+    <row r="14" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="57">
+        <v>10</v>
+      </c>
+      <c r="C14" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="67">
-        <v>0</v>
-      </c>
-      <c r="E13" s="67" t="s">
+      <c r="D14" s="57">
+        <v>1</v>
+      </c>
+      <c r="E14" s="57" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="67">
-        <v>10</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="67">
-        <v>1</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3886,7 +3882,7 @@
   <dimension ref="B1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B5" sqref="B5:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,66 +3908,66 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67">
-        <v>1</v>
-      </c>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="57">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="67">
-        <v>2</v>
-      </c>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="57">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67">
+      <c r="B7" s="57">
         <v>3</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="57" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67">
+      <c r="B8" s="57">
         <v>4</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="57" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="67">
+      <c r="B9" s="57">
         <v>5</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="67">
+      <c r="B10" s="57">
         <v>6</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="57" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="67">
+      <c r="B11" s="57">
         <v>7</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="57" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67">
+      <c r="B12" s="57">
         <v>8</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4002,7 +3998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B2115A-D7BF-41E7-AB58-A59A037F38B4}">
   <dimension ref="B1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -4042,146 +4038,146 @@
     </row>
     <row r="5" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="64"/>
+    </row>
+    <row r="7" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="64"/>
+    </row>
+    <row r="8" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="63" t="s">
         <v>344</v>
       </c>
-      <c r="C6" s="76"/>
-    </row>
-    <row r="7" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="75" t="s">
+      <c r="C8" s="64"/>
+    </row>
+    <row r="9" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="C7" s="76"/>
-    </row>
-    <row r="8" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="C8" s="76"/>
-    </row>
-    <row r="9" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="77" t="s">
-        <v>347</v>
-      </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="64"/>
     </row>
     <row r="10" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="77" t="s">
-        <v>343</v>
+      <c r="B11" s="63" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="74" t="s">
-        <v>380</v>
+      <c r="B15" s="62" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4193,47 +4189,47 @@
     <row r="38" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -4244,60 +4240,60 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D59" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -4342,142 +4338,142 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="66">
-        <v>1</v>
-      </c>
-      <c r="C5" s="71">
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="60">
         <v>45176.870625000003</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="61">
         <v>0</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="66">
-        <v>2</v>
-      </c>
-      <c r="C6" s="71">
+      <c r="B6" s="56">
+        <v>2</v>
+      </c>
+      <c r="C6" s="60">
         <v>45176.870625000003</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="61">
         <v>0</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="56">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="66">
+      <c r="B7" s="56">
         <v>3</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="60">
         <v>45176.870625000003</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="61">
         <v>0</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="56">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66">
+      <c r="B8" s="56">
         <v>4</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="60">
         <v>45176.870625000003</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="61">
         <v>0</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="56">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="66">
+      <c r="B9" s="56">
         <v>5</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="60">
         <v>45176.870625000003</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="61">
         <v>0</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="66">
+      <c r="B10" s="56">
         <v>6</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="60">
         <v>45176.870625000003</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="61">
         <v>0</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="56">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="66">
+      <c r="B11" s="56">
         <v>7</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="60">
         <v>45176.870625000003</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="61">
         <v>0</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="56">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66">
+      <c r="B12" s="56">
         <v>8</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="60">
         <v>45176.870625000003</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="61">
         <v>0</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="66">
+      <c r="B13" s="56">
         <v>9</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="60">
         <v>45176.870625000003</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="61">
         <v>0</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="56">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="66">
+      <c r="B14" s="56">
         <v>10</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="60">
         <v>45176.870625000003</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="61">
         <v>0</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="56">
         <v>10</v>
       </c>
     </row>
@@ -4517,7 +4513,7 @@
   <dimension ref="B1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B5" sqref="B5:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4552,164 +4548,164 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="66">
-        <v>1</v>
-      </c>
-      <c r="C5" s="66" t="s">
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="56">
+        <v>123456789</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="56">
+        <v>1</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="56">
+        <v>2</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D6" s="56">
         <v>123456789</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E6" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="56">
+        <v>1</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+    </row>
+    <row r="7" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="56">
+        <v>3</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="F5" s="66">
-        <v>1</v>
-      </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-    </row>
-    <row r="6" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="66">
-        <v>2</v>
-      </c>
-      <c r="C6" s="66" t="s">
+      <c r="D7" s="56">
+        <v>123456789</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="56">
+        <v>2</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="56">
+        <v>4</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D8" s="56">
         <v>123456789</v>
       </c>
-      <c r="E6" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="F6" s="66">
-        <v>1</v>
-      </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-    </row>
-    <row r="7" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="66">
+      <c r="E8" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="56">
         <v>3</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+    </row>
+    <row r="9" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="56">
+        <v>5</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D9" s="56">
         <v>123456789</v>
       </c>
-      <c r="E7" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="F7" s="66">
-        <v>2</v>
-      </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-    </row>
-    <row r="8" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66">
+      <c r="E9" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" s="56">
+        <v>2</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+    </row>
+    <row r="10" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="56">
+        <v>6</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="56">
+        <v>123456789</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="56">
+        <v>2</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="56">
+        <v>7</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="56">
+        <v>123456789</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="56">
         <v>4</v>
       </c>
-      <c r="C8" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" s="66">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+    </row>
+    <row r="12" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="56">
+        <v>8</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" s="56">
         <v>123456789</v>
       </c>
-      <c r="E8" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="F8" s="66">
-        <v>3</v>
-      </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-    </row>
-    <row r="9" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="66">
+      <c r="E12" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="56">
         <v>5</v>
       </c>
-      <c r="C9" s="66" t="s">
-        <v>314</v>
-      </c>
-      <c r="D9" s="66">
-        <v>123456789</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="F9" s="66">
-        <v>2</v>
-      </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-    </row>
-    <row r="10" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="66">
-        <v>6</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>315</v>
-      </c>
-      <c r="D10" s="66">
-        <v>123456789</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="F10" s="66">
-        <v>2</v>
-      </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-    </row>
-    <row r="11" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="66">
-        <v>7</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="66">
-        <v>123456789</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="F11" s="66">
-        <v>4</v>
-      </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-    </row>
-    <row r="12" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66">
-        <v>8</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="66">
-        <v>123456789</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="F12" s="66">
-        <v>5</v>
-      </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4718,28 +4714,28 @@
     <row r="17" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="64"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="64"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="64"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="64"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="64"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="64"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="64"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="64"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4765,7 +4761,7 @@
   <dimension ref="B3:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4784,50 +4780,50 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67">
-        <v>1</v>
-      </c>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="57">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="67">
-        <v>2</v>
-      </c>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="57">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67">
+      <c r="B7" s="57">
         <v>3</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="57" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67">
+      <c r="B8" s="57">
         <v>4</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="57" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="67">
+      <c r="B9" s="57">
         <v>5</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="57" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="67">
+      <c r="B10" s="57">
         <v>6</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="57" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4840,8 +4836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD1D9A7-6595-4AD7-8E58-C4F147702EF9}">
   <dimension ref="B3:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4865,9 +4861,6 @@
         <v>86</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="G4" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4875,39 +4868,36 @@
       <c r="B5" s="42">
         <v>1</v>
       </c>
-      <c r="C5" s="65">
-        <v>1</v>
-      </c>
-      <c r="D5" s="65">
-        <v>1</v>
-      </c>
-      <c r="E5" s="65">
+      <c r="C5" s="55">
+        <v>1</v>
+      </c>
+      <c r="D5" s="55">
+        <v>1</v>
+      </c>
+      <c r="E5" s="55">
         <v>100</v>
       </c>
-      <c r="F5" s="65">
-        <v>195</v>
-      </c>
-      <c r="G5" s="65">
+      <c r="F5" s="55">
         <v>210</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42">
         <v>2</v>
       </c>
-      <c r="C6" s="65">
-        <v>1</v>
-      </c>
-      <c r="D6" s="65">
+      <c r="C6" s="55">
+        <v>1</v>
+      </c>
+      <c r="D6" s="55">
         <v>3</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="55">
         <v>100</v>
       </c>
-      <c r="F6" s="65">
-        <v>185</v>
-      </c>
-      <c r="G6" s="65">
+      <c r="F6" s="55">
         <v>230</v>
       </c>
     </row>
@@ -4915,19 +4905,16 @@
       <c r="B7" s="42">
         <v>3</v>
       </c>
-      <c r="C7" s="65">
-        <v>1</v>
-      </c>
-      <c r="D7" s="65">
+      <c r="C7" s="55">
+        <v>1</v>
+      </c>
+      <c r="D7" s="55">
         <v>5</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="55">
         <v>100</v>
       </c>
-      <c r="F7" s="65">
-        <v>175</v>
-      </c>
-      <c r="G7" s="65">
+      <c r="F7" s="55">
         <v>250</v>
       </c>
     </row>
@@ -4935,19 +4922,16 @@
       <c r="B8" s="42">
         <v>4</v>
       </c>
-      <c r="C8" s="65">
-        <v>1</v>
-      </c>
-      <c r="D8" s="65">
+      <c r="C8" s="55">
+        <v>1</v>
+      </c>
+      <c r="D8" s="55">
         <v>7</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="55">
         <v>100</v>
       </c>
-      <c r="F8" s="65">
-        <v>165</v>
-      </c>
-      <c r="G8" s="65">
+      <c r="F8" s="55">
         <v>270</v>
       </c>
     </row>
@@ -4955,19 +4939,16 @@
       <c r="B9" s="42">
         <v>5</v>
       </c>
-      <c r="C9" s="65">
-        <v>1</v>
-      </c>
-      <c r="D9" s="65">
+      <c r="C9" s="55">
+        <v>1</v>
+      </c>
+      <c r="D9" s="55">
         <v>9</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="55">
         <v>100</v>
       </c>
-      <c r="F9" s="65">
-        <v>155</v>
-      </c>
-      <c r="G9" s="65">
+      <c r="F9" s="55">
         <v>290</v>
       </c>
     </row>
@@ -4975,19 +4956,16 @@
       <c r="B10" s="42">
         <v>6</v>
       </c>
-      <c r="C10" s="65">
-        <v>2</v>
-      </c>
-      <c r="D10" s="65">
-        <v>2</v>
-      </c>
-      <c r="E10" s="65">
+      <c r="C10" s="55">
+        <v>2</v>
+      </c>
+      <c r="D10" s="55">
+        <v>2</v>
+      </c>
+      <c r="E10" s="55">
         <v>120</v>
       </c>
-      <c r="F10" s="65">
-        <v>284</v>
-      </c>
-      <c r="G10" s="65">
+      <c r="F10" s="55">
         <v>336</v>
       </c>
     </row>
@@ -4995,19 +4973,16 @@
       <c r="B11" s="42">
         <v>7</v>
       </c>
-      <c r="C11" s="65">
-        <v>2</v>
-      </c>
-      <c r="D11" s="65">
+      <c r="C11" s="55">
+        <v>2</v>
+      </c>
+      <c r="D11" s="55">
         <v>4</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="55">
         <v>120</v>
       </c>
-      <c r="F11" s="65">
-        <v>268</v>
-      </c>
-      <c r="G11" s="65">
+      <c r="F11" s="55">
         <v>352</v>
       </c>
     </row>
@@ -5015,19 +4990,16 @@
       <c r="B12" s="42">
         <v>8</v>
       </c>
-      <c r="C12" s="65">
-        <v>2</v>
-      </c>
-      <c r="D12" s="65">
+      <c r="C12" s="55">
+        <v>2</v>
+      </c>
+      <c r="D12" s="55">
         <v>6</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="55">
         <v>120</v>
       </c>
-      <c r="F12" s="65">
-        <v>252</v>
-      </c>
-      <c r="G12" s="65">
+      <c r="F12" s="55">
         <v>368</v>
       </c>
     </row>
@@ -5035,19 +5007,16 @@
       <c r="B13" s="42">
         <v>9</v>
       </c>
-      <c r="C13" s="65">
-        <v>2</v>
-      </c>
-      <c r="D13" s="65">
+      <c r="C13" s="55">
+        <v>2</v>
+      </c>
+      <c r="D13" s="55">
         <v>8</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="55">
         <v>120</v>
       </c>
-      <c r="F13" s="65">
-        <v>236</v>
-      </c>
-      <c r="G13" s="65">
+      <c r="F13" s="55">
         <v>384</v>
       </c>
     </row>
@@ -5055,19 +5024,16 @@
       <c r="B14" s="42">
         <v>10</v>
       </c>
-      <c r="C14" s="65">
-        <v>2</v>
-      </c>
-      <c r="D14" s="65">
+      <c r="C14" s="55">
+        <v>2</v>
+      </c>
+      <c r="D14" s="55">
         <v>10</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="55">
         <v>120</v>
       </c>
-      <c r="F14" s="65">
-        <v>220</v>
-      </c>
-      <c r="G14" s="65">
+      <c r="F14" s="55">
         <v>400</v>
       </c>
     </row>
@@ -5075,19 +5041,16 @@
       <c r="B15" s="42">
         <v>11</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="55">
         <v>3</v>
       </c>
-      <c r="D15" s="65">
-        <v>1</v>
-      </c>
-      <c r="E15" s="65">
+      <c r="D15" s="55">
+        <v>1</v>
+      </c>
+      <c r="E15" s="55">
         <v>100</v>
       </c>
-      <c r="F15" s="65">
-        <v>195</v>
-      </c>
-      <c r="G15" s="65">
+      <c r="F15" s="55">
         <v>210</v>
       </c>
     </row>
@@ -5095,1179 +5058,1002 @@
       <c r="B16" s="42">
         <v>12</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="55">
         <v>3</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="55">
         <v>3</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="55">
         <v>100</v>
       </c>
-      <c r="F16" s="65">
-        <v>185</v>
-      </c>
-      <c r="G16" s="65">
+      <c r="F16" s="55">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="42">
         <v>13</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="55">
         <v>3</v>
       </c>
-      <c r="D17" s="65">
+      <c r="D17" s="55">
         <v>5</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="55">
         <v>100</v>
       </c>
-      <c r="F17" s="65">
-        <v>175</v>
-      </c>
-      <c r="G17" s="65">
+      <c r="F17" s="55">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42">
         <v>14</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="55">
         <v>3</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="55">
         <v>7</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="55">
         <v>100</v>
       </c>
-      <c r="F18" s="65">
-        <v>165</v>
-      </c>
-      <c r="G18" s="65">
+      <c r="F18" s="55">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="42">
         <v>15</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="55">
         <v>3</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="55">
         <v>9</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="55">
         <v>100</v>
       </c>
-      <c r="F19" s="65">
-        <v>155</v>
-      </c>
-      <c r="G19" s="65">
+      <c r="F19" s="55">
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="42">
         <v>16</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="55">
         <v>4</v>
       </c>
-      <c r="D20" s="65">
-        <v>2</v>
-      </c>
-      <c r="E20" s="65">
+      <c r="D20" s="55">
+        <v>2</v>
+      </c>
+      <c r="E20" s="55">
         <v>120</v>
       </c>
-      <c r="F20" s="65">
-        <v>284</v>
-      </c>
-      <c r="G20" s="65">
+      <c r="F20" s="55">
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="42">
         <v>17</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="55">
         <v>4</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="55">
         <v>4</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="55">
         <v>120</v>
       </c>
-      <c r="F21" s="65">
-        <v>268</v>
-      </c>
-      <c r="G21" s="65">
+      <c r="F21" s="55">
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="42">
         <v>18</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="55">
         <v>4</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="55">
         <v>6</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="55">
         <v>120</v>
       </c>
-      <c r="F22" s="65">
-        <v>252</v>
-      </c>
-      <c r="G22" s="65">
+      <c r="F22" s="55">
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="42">
         <v>19</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="55">
         <v>4</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="55">
         <v>8</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="55">
         <v>120</v>
       </c>
-      <c r="F23" s="65">
-        <v>236</v>
-      </c>
-      <c r="G23" s="65">
+      <c r="F23" s="55">
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="42">
         <v>20</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="55">
         <v>4</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="55">
         <v>10</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="55">
         <v>120</v>
       </c>
-      <c r="F24" s="65">
-        <v>220</v>
-      </c>
-      <c r="G24" s="65">
+      <c r="F24" s="55">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="42">
         <v>21</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="55">
         <v>5</v>
       </c>
-      <c r="D25" s="65">
-        <v>1</v>
-      </c>
-      <c r="E25" s="65">
+      <c r="D25" s="55">
+        <v>1</v>
+      </c>
+      <c r="E25" s="55">
         <v>100</v>
       </c>
-      <c r="F25" s="65">
-        <v>195</v>
-      </c>
-      <c r="G25" s="65">
+      <c r="F25" s="55">
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="42">
         <v>22</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="55">
         <v>5</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="55">
         <v>3</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="55">
         <v>100</v>
       </c>
-      <c r="F26" s="65">
-        <v>185</v>
-      </c>
-      <c r="G26" s="65">
+      <c r="F26" s="55">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="42">
         <v>23</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="55">
         <v>5</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="55">
         <v>5</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="55">
         <v>100</v>
       </c>
-      <c r="F27" s="65">
-        <v>175</v>
-      </c>
-      <c r="G27" s="65">
+      <c r="F27" s="55">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="42">
         <v>24</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="55">
         <v>5</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="55">
         <v>7</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="55">
         <v>100</v>
       </c>
-      <c r="F28" s="65">
-        <v>165</v>
-      </c>
-      <c r="G28" s="65">
+      <c r="F28" s="55">
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="42">
         <v>25</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="55">
         <v>5</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="55">
         <v>9</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="55">
         <v>100</v>
       </c>
-      <c r="F29" s="65">
-        <v>155</v>
-      </c>
-      <c r="G29" s="65">
+      <c r="F29" s="55">
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="42">
         <v>26</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="55">
         <v>6</v>
       </c>
-      <c r="D30" s="65">
-        <v>2</v>
-      </c>
-      <c r="E30" s="65">
+      <c r="D30" s="55">
+        <v>2</v>
+      </c>
+      <c r="E30" s="55">
         <v>120</v>
       </c>
-      <c r="F30" s="65">
-        <v>284</v>
-      </c>
-      <c r="G30" s="65">
+      <c r="F30" s="55">
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="42">
         <v>27</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="55">
         <v>6</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="55">
         <v>4</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="55">
         <v>120</v>
       </c>
-      <c r="F31" s="65">
-        <v>268</v>
-      </c>
-      <c r="G31" s="65">
+      <c r="F31" s="55">
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="42">
         <v>28</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="55">
         <v>6</v>
       </c>
-      <c r="D32" s="65">
+      <c r="D32" s="55">
         <v>6</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="55">
         <v>120</v>
       </c>
-      <c r="F32" s="65">
-        <v>252</v>
-      </c>
-      <c r="G32" s="65">
+      <c r="F32" s="55">
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="42">
         <v>29</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="55">
         <v>6</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="55">
         <v>8</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="55">
         <v>120</v>
       </c>
-      <c r="F33" s="65">
-        <v>236</v>
-      </c>
-      <c r="G33" s="65">
+      <c r="F33" s="55">
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="42">
         <v>30</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="55">
         <v>6</v>
       </c>
-      <c r="D34" s="65">
+      <c r="D34" s="55">
         <v>10</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="55">
         <v>120</v>
       </c>
-      <c r="F34" s="65">
-        <v>220</v>
-      </c>
-      <c r="G34" s="65">
+      <c r="F34" s="55">
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="42">
         <v>31</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="55">
         <v>7</v>
       </c>
-      <c r="D35" s="65">
-        <v>1</v>
-      </c>
-      <c r="E35" s="65">
+      <c r="D35" s="55">
+        <v>1</v>
+      </c>
+      <c r="E35" s="55">
         <v>100</v>
       </c>
-      <c r="F35" s="65">
-        <v>195</v>
-      </c>
-      <c r="G35" s="65">
+      <c r="F35" s="55">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="42">
         <v>32</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="55">
         <v>7</v>
       </c>
-      <c r="D36" s="65">
+      <c r="D36" s="55">
         <v>3</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="55">
         <v>100</v>
       </c>
-      <c r="F36" s="65">
-        <v>185</v>
-      </c>
-      <c r="G36" s="65">
+      <c r="F36" s="55">
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42">
         <v>33</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="55">
         <v>7</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="55">
         <v>5</v>
       </c>
-      <c r="E37" s="65">
+      <c r="E37" s="55">
         <v>100</v>
       </c>
-      <c r="F37" s="65">
-        <v>175</v>
-      </c>
-      <c r="G37" s="65">
+      <c r="F37" s="55">
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="42">
         <v>34</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="55">
         <v>7</v>
       </c>
-      <c r="D38" s="65">
+      <c r="D38" s="55">
         <v>7</v>
       </c>
-      <c r="E38" s="65">
+      <c r="E38" s="55">
         <v>100</v>
       </c>
-      <c r="F38" s="65">
-        <v>165</v>
-      </c>
-      <c r="G38" s="65">
+      <c r="F38" s="55">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="42">
         <v>35</v>
       </c>
-      <c r="C39" s="65">
+      <c r="C39" s="55">
         <v>7</v>
       </c>
-      <c r="D39" s="65">
+      <c r="D39" s="55">
         <v>9</v>
       </c>
-      <c r="E39" s="65">
+      <c r="E39" s="55">
         <v>100</v>
       </c>
-      <c r="F39" s="65">
-        <v>155</v>
-      </c>
-      <c r="G39" s="65">
+      <c r="F39" s="55">
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="42">
         <v>36</v>
       </c>
-      <c r="C40" s="65">
+      <c r="C40" s="55">
         <v>8</v>
       </c>
-      <c r="D40" s="65">
-        <v>2</v>
-      </c>
-      <c r="E40" s="65">
+      <c r="D40" s="55">
+        <v>2</v>
+      </c>
+      <c r="E40" s="55">
         <v>120</v>
       </c>
-      <c r="F40" s="65">
-        <v>284</v>
-      </c>
-      <c r="G40" s="65">
+      <c r="F40" s="55">
         <v>336</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="42">
         <v>37</v>
       </c>
-      <c r="C41" s="65">
+      <c r="C41" s="55">
         <v>8</v>
       </c>
-      <c r="D41" s="65">
+      <c r="D41" s="55">
         <v>4</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="55">
         <v>120</v>
       </c>
-      <c r="F41" s="65">
-        <v>268</v>
-      </c>
-      <c r="G41" s="65">
+      <c r="F41" s="55">
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42">
         <v>38</v>
       </c>
-      <c r="C42" s="65">
+      <c r="C42" s="55">
         <v>8</v>
       </c>
-      <c r="D42" s="65">
+      <c r="D42" s="55">
         <v>6</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="55">
         <v>120</v>
       </c>
-      <c r="F42" s="65">
-        <v>252</v>
-      </c>
-      <c r="G42" s="65">
+      <c r="F42" s="55">
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="42">
         <v>39</v>
       </c>
-      <c r="C43" s="65">
+      <c r="C43" s="55">
         <v>8</v>
       </c>
-      <c r="D43" s="65">
+      <c r="D43" s="55">
         <v>8</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E43" s="55">
         <v>120</v>
       </c>
-      <c r="F43" s="65">
-        <v>236</v>
-      </c>
-      <c r="G43" s="65">
+      <c r="F43" s="55">
         <v>384</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="42">
         <v>40</v>
       </c>
-      <c r="C44" s="65">
+      <c r="C44" s="55">
         <v>8</v>
       </c>
-      <c r="D44" s="65">
+      <c r="D44" s="55">
         <v>10</v>
       </c>
-      <c r="E44" s="65">
+      <c r="E44" s="55">
         <v>120</v>
       </c>
-      <c r="F44" s="65">
-        <v>220</v>
-      </c>
-      <c r="G44" s="65">
+      <c r="F44" s="55">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="42">
         <v>41</v>
       </c>
-      <c r="C45" s="65">
+      <c r="C45" s="55">
         <v>9</v>
       </c>
-      <c r="D45" s="65">
-        <v>1</v>
-      </c>
-      <c r="E45" s="65">
+      <c r="D45" s="55">
+        <v>1</v>
+      </c>
+      <c r="E45" s="55">
         <v>100</v>
       </c>
-      <c r="F45" s="65">
-        <v>195</v>
-      </c>
-      <c r="G45" s="65">
+      <c r="F45" s="55">
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="42">
         <v>42</v>
       </c>
-      <c r="C46" s="65">
+      <c r="C46" s="55">
         <v>9</v>
       </c>
-      <c r="D46" s="65">
+      <c r="D46" s="55">
         <v>3</v>
       </c>
-      <c r="E46" s="65">
+      <c r="E46" s="55">
         <v>100</v>
       </c>
-      <c r="F46" s="65">
-        <v>185</v>
-      </c>
-      <c r="G46" s="65">
+      <c r="F46" s="55">
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="42">
         <v>43</v>
       </c>
-      <c r="C47" s="65">
+      <c r="C47" s="55">
         <v>9</v>
       </c>
-      <c r="D47" s="65">
+      <c r="D47" s="55">
         <v>5</v>
       </c>
-      <c r="E47" s="65">
+      <c r="E47" s="55">
         <v>100</v>
       </c>
-      <c r="F47" s="65">
-        <v>175</v>
-      </c>
-      <c r="G47" s="65">
+      <c r="F47" s="55">
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="42">
         <v>44</v>
       </c>
-      <c r="C48" s="65">
+      <c r="C48" s="55">
         <v>9</v>
       </c>
-      <c r="D48" s="65">
+      <c r="D48" s="55">
         <v>7</v>
       </c>
-      <c r="E48" s="65">
+      <c r="E48" s="55">
         <v>100</v>
       </c>
-      <c r="F48" s="65">
-        <v>165</v>
-      </c>
-      <c r="G48" s="65">
+      <c r="F48" s="55">
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="42">
         <v>45</v>
       </c>
-      <c r="C49" s="65">
+      <c r="C49" s="55">
         <v>9</v>
       </c>
-      <c r="D49" s="65">
+      <c r="D49" s="55">
         <v>9</v>
       </c>
-      <c r="E49" s="65">
+      <c r="E49" s="55">
         <v>100</v>
       </c>
-      <c r="F49" s="65">
-        <v>155</v>
-      </c>
-      <c r="G49" s="65">
+      <c r="F49" s="55">
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="42">
         <v>46</v>
       </c>
-      <c r="C50" s="65">
+      <c r="C50" s="55">
         <v>10</v>
       </c>
-      <c r="D50" s="65">
-        <v>2</v>
-      </c>
-      <c r="E50" s="65">
+      <c r="D50" s="55">
+        <v>2</v>
+      </c>
+      <c r="E50" s="55">
         <v>120</v>
       </c>
-      <c r="F50" s="65">
-        <v>284</v>
-      </c>
-      <c r="G50" s="65">
+      <c r="F50" s="55">
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="42">
         <v>47</v>
       </c>
-      <c r="C51" s="65">
+      <c r="C51" s="55">
         <v>10</v>
       </c>
-      <c r="D51" s="65">
+      <c r="D51" s="55">
         <v>4</v>
       </c>
-      <c r="E51" s="65">
+      <c r="E51" s="55">
         <v>120</v>
       </c>
-      <c r="F51" s="65">
-        <v>268</v>
-      </c>
-      <c r="G51" s="65">
+      <c r="F51" s="55">
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="42">
         <v>48</v>
       </c>
-      <c r="C52" s="65">
+      <c r="C52" s="55">
         <v>10</v>
       </c>
-      <c r="D52" s="65">
+      <c r="D52" s="55">
         <v>6</v>
       </c>
-      <c r="E52" s="65">
+      <c r="E52" s="55">
         <v>120</v>
       </c>
-      <c r="F52" s="65">
-        <v>252</v>
-      </c>
-      <c r="G52" s="65">
+      <c r="F52" s="55">
         <v>368</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="42">
         <v>49</v>
       </c>
-      <c r="C53" s="65">
+      <c r="C53" s="55">
         <v>10</v>
       </c>
-      <c r="D53" s="65">
+      <c r="D53" s="55">
         <v>8</v>
       </c>
-      <c r="E53" s="65">
+      <c r="E53" s="55">
         <v>120</v>
       </c>
-      <c r="F53" s="65">
-        <v>236</v>
-      </c>
-      <c r="G53" s="65">
+      <c r="F53" s="55">
         <v>384</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="42">
         <v>50</v>
       </c>
-      <c r="C54" s="65">
+      <c r="C54" s="55">
         <v>10</v>
       </c>
-      <c r="D54" s="65">
+      <c r="D54" s="55">
         <v>10</v>
       </c>
-      <c r="E54" s="65">
+      <c r="E54" s="55">
         <v>120</v>
       </c>
-      <c r="F54" s="65">
-        <v>220</v>
-      </c>
-      <c r="G54" s="65">
+      <c r="F54" s="55">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="42">
         <v>51</v>
       </c>
-      <c r="C55" s="65">
+      <c r="C55" s="55">
         <v>11</v>
       </c>
-      <c r="D55" s="65">
-        <v>1</v>
-      </c>
-      <c r="E55" s="65">
+      <c r="D55" s="55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="55">
         <v>100</v>
       </c>
-      <c r="F55" s="65">
-        <v>195</v>
-      </c>
-      <c r="G55" s="65">
+      <c r="F55" s="55">
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="42">
         <v>52</v>
       </c>
-      <c r="C56" s="65">
+      <c r="C56" s="55">
         <v>11</v>
       </c>
-      <c r="D56" s="65">
+      <c r="D56" s="55">
         <v>3</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="55">
         <v>100</v>
       </c>
-      <c r="F56" s="65">
-        <v>185</v>
-      </c>
-      <c r="G56" s="65">
+      <c r="F56" s="55">
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="42">
         <v>53</v>
       </c>
-      <c r="C57" s="65">
+      <c r="C57" s="55">
         <v>11</v>
       </c>
-      <c r="D57" s="65">
+      <c r="D57" s="55">
         <v>5</v>
       </c>
-      <c r="E57" s="65">
+      <c r="E57" s="55">
         <v>100</v>
       </c>
-      <c r="F57" s="65">
-        <v>175</v>
-      </c>
-      <c r="G57" s="65">
+      <c r="F57" s="55">
         <v>250</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="42">
         <v>54</v>
       </c>
-      <c r="C58" s="65">
+      <c r="C58" s="55">
         <v>11</v>
       </c>
-      <c r="D58" s="65">
+      <c r="D58" s="55">
         <v>7</v>
       </c>
-      <c r="E58" s="65">
+      <c r="E58" s="55">
         <v>100</v>
       </c>
-      <c r="F58" s="65">
-        <v>165</v>
-      </c>
-      <c r="G58" s="65">
+      <c r="F58" s="55">
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="42">
         <v>55</v>
       </c>
-      <c r="C59" s="65">
+      <c r="C59" s="55">
         <v>11</v>
       </c>
-      <c r="D59" s="65">
+      <c r="D59" s="55">
         <v>9</v>
       </c>
-      <c r="E59" s="65">
+      <c r="E59" s="55">
         <v>100</v>
       </c>
-      <c r="F59" s="65">
-        <v>155</v>
-      </c>
-      <c r="G59" s="65">
+      <c r="F59" s="55">
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="42">
         <v>56</v>
       </c>
-      <c r="C60" s="65">
+      <c r="C60" s="55">
         <v>12</v>
       </c>
-      <c r="D60" s="65">
-        <v>2</v>
-      </c>
-      <c r="E60" s="65">
+      <c r="D60" s="55">
+        <v>2</v>
+      </c>
+      <c r="E60" s="55">
         <v>120</v>
       </c>
-      <c r="F60" s="65">
-        <v>284</v>
-      </c>
-      <c r="G60" s="65">
+      <c r="F60" s="55">
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="42">
         <v>57</v>
       </c>
-      <c r="C61" s="65">
+      <c r="C61" s="55">
         <v>12</v>
       </c>
-      <c r="D61" s="65">
+      <c r="D61" s="55">
         <v>4</v>
       </c>
-      <c r="E61" s="65">
+      <c r="E61" s="55">
         <v>120</v>
       </c>
-      <c r="F61" s="65">
-        <v>268</v>
-      </c>
-      <c r="G61" s="65">
+      <c r="F61" s="55">
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="42">
         <v>58</v>
       </c>
-      <c r="C62" s="65">
+      <c r="C62" s="55">
         <v>12</v>
       </c>
-      <c r="D62" s="65">
+      <c r="D62" s="55">
         <v>6</v>
       </c>
-      <c r="E62" s="65">
+      <c r="E62" s="55">
         <v>120</v>
       </c>
-      <c r="F62" s="65">
-        <v>252</v>
-      </c>
-      <c r="G62" s="65">
+      <c r="F62" s="55">
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="42">
         <v>59</v>
       </c>
-      <c r="C63" s="65">
+      <c r="C63" s="55">
         <v>12</v>
       </c>
-      <c r="D63" s="65">
+      <c r="D63" s="55">
         <v>8</v>
       </c>
-      <c r="E63" s="65">
+      <c r="E63" s="55">
         <v>120</v>
       </c>
-      <c r="F63" s="65">
-        <v>236</v>
-      </c>
-      <c r="G63" s="65">
+      <c r="F63" s="55">
         <v>384</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="42">
         <v>60</v>
       </c>
-      <c r="C64" s="65">
+      <c r="C64" s="55">
         <v>12</v>
       </c>
-      <c r="D64" s="65">
+      <c r="D64" s="55">
         <v>10</v>
       </c>
-      <c r="E64" s="65">
+      <c r="E64" s="55">
         <v>120</v>
       </c>
-      <c r="F64" s="65">
-        <v>220</v>
-      </c>
-      <c r="G64" s="65">
+      <c r="F64" s="55">
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="42">
         <v>61</v>
       </c>
-      <c r="C65" s="65">
+      <c r="C65" s="55">
         <v>13</v>
       </c>
-      <c r="D65" s="65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="65">
+      <c r="D65" s="55">
+        <v>1</v>
+      </c>
+      <c r="E65" s="55">
         <v>100</v>
       </c>
-      <c r="F65" s="65">
-        <v>195</v>
-      </c>
-      <c r="G65" s="65">
+      <c r="F65" s="55">
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="42">
         <v>62</v>
       </c>
-      <c r="C66" s="65">
+      <c r="C66" s="55">
         <v>13</v>
       </c>
-      <c r="D66" s="65">
+      <c r="D66" s="55">
         <v>3</v>
       </c>
-      <c r="E66" s="65">
+      <c r="E66" s="55">
         <v>100</v>
       </c>
-      <c r="F66" s="65">
-        <v>185</v>
-      </c>
-      <c r="G66" s="65">
+      <c r="F66" s="55">
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="42">
         <v>63</v>
       </c>
-      <c r="C67" s="65">
+      <c r="C67" s="55">
         <v>13</v>
       </c>
-      <c r="D67" s="65">
+      <c r="D67" s="55">
         <v>5</v>
       </c>
-      <c r="E67" s="65">
+      <c r="E67" s="55">
         <v>100</v>
       </c>
-      <c r="F67" s="65">
-        <v>175</v>
-      </c>
-      <c r="G67" s="65">
+      <c r="F67" s="55">
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="42">
         <v>64</v>
       </c>
-      <c r="C68" s="65">
+      <c r="C68" s="55">
         <v>13</v>
       </c>
-      <c r="D68" s="65">
+      <c r="D68" s="55">
         <v>7</v>
       </c>
-      <c r="E68" s="65">
+      <c r="E68" s="55">
         <v>100</v>
       </c>
-      <c r="F68" s="65">
-        <v>165</v>
-      </c>
-      <c r="G68" s="65">
+      <c r="F68" s="55">
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="42">
         <v>65</v>
       </c>
-      <c r="C69" s="65">
+      <c r="C69" s="55">
         <v>13</v>
       </c>
-      <c r="D69" s="65">
+      <c r="D69" s="55">
         <v>9</v>
       </c>
-      <c r="E69" s="65">
+      <c r="E69" s="55">
         <v>100</v>
       </c>
-      <c r="F69" s="65">
-        <v>155</v>
-      </c>
-      <c r="G69" s="65">
+      <c r="F69" s="55">
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="42">
         <v>66</v>
       </c>
-      <c r="C70" s="65">
+      <c r="C70" s="55">
         <v>14</v>
       </c>
-      <c r="D70" s="65">
-        <v>2</v>
-      </c>
-      <c r="E70" s="65">
+      <c r="D70" s="55">
+        <v>2</v>
+      </c>
+      <c r="E70" s="55">
         <v>120</v>
       </c>
-      <c r="F70" s="65">
-        <v>284</v>
-      </c>
-      <c r="G70" s="65">
+      <c r="F70" s="55">
         <v>336</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="42">
         <v>67</v>
       </c>
-      <c r="C71" s="65">
+      <c r="C71" s="55">
         <v>14</v>
       </c>
-      <c r="D71" s="65">
+      <c r="D71" s="55">
         <v>4</v>
       </c>
-      <c r="E71" s="65">
+      <c r="E71" s="55">
         <v>120</v>
       </c>
-      <c r="F71" s="65">
-        <v>268</v>
-      </c>
-      <c r="G71" s="65">
+      <c r="F71" s="55">
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="42">
         <v>68</v>
       </c>
-      <c r="C72" s="65">
+      <c r="C72" s="55">
         <v>14</v>
       </c>
-      <c r="D72" s="65">
+      <c r="D72" s="55">
         <v>6</v>
       </c>
-      <c r="E72" s="65">
+      <c r="E72" s="55">
         <v>120</v>
       </c>
-      <c r="F72" s="65">
-        <v>252</v>
-      </c>
-      <c r="G72" s="65">
+      <c r="F72" s="55">
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="42">
         <v>69</v>
       </c>
-      <c r="C73" s="65">
+      <c r="C73" s="55">
         <v>14</v>
       </c>
-      <c r="D73" s="65">
+      <c r="D73" s="55">
         <v>8</v>
       </c>
-      <c r="E73" s="65">
+      <c r="E73" s="55">
         <v>120</v>
       </c>
-      <c r="F73" s="65">
-        <v>236</v>
-      </c>
-      <c r="G73" s="65">
+      <c r="F73" s="55">
         <v>384</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="42">
         <v>70</v>
       </c>
-      <c r="C74" s="65">
+      <c r="C74" s="55">
         <v>14</v>
       </c>
-      <c r="D74" s="65">
+      <c r="D74" s="55">
         <v>10</v>
       </c>
-      <c r="E74" s="65">
+      <c r="E74" s="55">
         <v>120</v>
       </c>
-      <c r="F74" s="65">
-        <v>220</v>
-      </c>
-      <c r="G74" s="65">
+      <c r="F74" s="55">
         <v>400</v>
       </c>
     </row>
@@ -6282,7 +6068,7 @@
   <dimension ref="B1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B5" sqref="B5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6309,35 +6095,35 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67">
-        <v>1</v>
-      </c>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="57">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="57">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="67">
-        <v>2</v>
-      </c>
-      <c r="C6" s="67" t="s">
+    <row r="7" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="57">
+        <v>3</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67">
-        <v>3</v>
-      </c>
-      <c r="C7" s="67" t="s">
+    <row r="8" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="57">
+        <v>4</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67">
-        <v>4</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6382,7 +6168,7 @@
   <dimension ref="B1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6399,51 +6185,51 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67">
-        <v>1</v>
-      </c>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="57">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="67">
-        <v>2</v>
-      </c>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="57">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67">
+      <c r="B7" s="57">
         <v>3</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="57" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67">
+      <c r="B8" s="57">
         <v>4</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="57">
+        <v>5</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="67">
-        <v>5</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6511,16 +6297,16 @@
   <sheetData>
     <row r="1" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
     </row>
     <row r="3" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6529,9 +6315,9 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6920,7 +6706,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="68" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6944,7 +6730,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="53"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6971,7 +6757,7 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="69" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -6987,7 +6773,7 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="55"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
@@ -7463,18 +7249,18 @@
   <sheetData>
     <row r="1" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
@@ -7485,9 +7271,9 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
@@ -8730,10 +8516,10 @@
       <c r="B111" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="D111" s="56"/>
+      <c r="D111" s="71"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="41" t="s">
@@ -8848,8 +8634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79120E3-8B85-45B8-906C-9F3770585442}">
   <dimension ref="A1:Y142"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:N8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -8873,20 +8659,20 @@
   <sheetData>
     <row r="1" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="47"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="47"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -8899,9 +8685,9 @@
       </c>
     </row>
     <row r="4" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="18" t="s">
         <v>231</v>
       </c>
@@ -8917,30 +8703,25 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
     </row>
     <row r="5" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>30</v>
+        <v>384</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>31</v>
+        <v>387</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>33</v>
+        <v>381</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>34</v>
+        <v>380</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>35</v>
@@ -8949,25 +8730,25 @@
         <v>36</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>38</v>
+        <v>382</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>39</v>
+        <v>390</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
+        <v>392</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="11"/>
@@ -9009,14 +8790,9 @@
       <c r="M6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="58" t="s">
+      <c r="N6" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
     </row>
     <row r="7" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
@@ -9055,14 +8831,9 @@
       <c r="M7" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="59" t="s">
+      <c r="N7" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
     </row>
     <row r="8" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="s">
@@ -9078,7 +8849,7 @@
         <v>197</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>101</v>
@@ -9101,14 +8872,9 @@
       <c r="M8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N8" s="60" t="s">
+      <c r="N8" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9141,12 +8907,7 @@
       <c r="L9" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="60"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="46" t="s">
@@ -9179,12 +8940,7 @@
         <v>86</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
+      <c r="N10" s="52"/>
       <c r="W10" s="9"/>
       <c r="X10" s="10"/>
     </row>
@@ -9212,12 +8968,7 @@
         <v>134</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
@@ -9234,12 +8985,7 @@
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
@@ -9254,12 +9000,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
+      <c r="N13" s="52"/>
       <c r="W13" s="12"/>
     </row>
     <row r="14" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9275,12 +9016,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
+      <c r="N14" s="52"/>
       <c r="W14" s="9"/>
       <c r="X14" s="10"/>
     </row>
@@ -9297,12 +9033,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
+      <c r="N15" s="52"/>
       <c r="W15" s="9"/>
       <c r="X15" s="10"/>
     </row>
@@ -9319,12 +9050,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
+      <c r="N16" s="52"/>
       <c r="W16" s="9"/>
       <c r="X16" s="10"/>
     </row>
@@ -9341,12 +9067,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
+      <c r="N17" s="52"/>
       <c r="W17" s="9"/>
       <c r="X17" s="10"/>
     </row>
@@ -9363,12 +9084,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
+      <c r="N18" s="52"/>
     </row>
     <row r="19" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -9383,12 +9099,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -10257,10 +9968,10 @@
       <c r="B111" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="D111" s="56"/>
+      <c r="D111" s="71"/>
       <c r="E111" s="29"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
@@ -10846,7 +10557,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="43"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="72" t="s">
         <v>226</v>
       </c>
       <c r="D6" s="43" t="s">
@@ -10855,7 +10566,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
-      <c r="C7" s="57"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="43" t="s">
         <v>227</v>
       </c>
@@ -10875,8 +10586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BF5BE8-88FD-456B-910E-E97BE4DBD244}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10912,103 +10623,103 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="66">
-        <v>1</v>
-      </c>
-      <c r="C5" s="66" t="s">
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="56" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="56">
         <v>123456789</v>
       </c>
-      <c r="G5" s="66">
-        <v>12345678</v>
+      <c r="G5" s="56">
+        <v>88888888</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="66">
-        <v>2</v>
-      </c>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="56">
+        <v>2</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="56">
         <v>123456789</v>
       </c>
-      <c r="G6" s="66">
-        <v>12345678</v>
+      <c r="G6" s="56">
+        <v>88888888</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="66">
+      <c r="B7" s="56">
         <v>3</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="56">
         <v>123456789</v>
       </c>
-      <c r="G7" s="66">
-        <v>12345678</v>
+      <c r="G7" s="56">
+        <v>88888888</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66">
+      <c r="B8" s="56">
         <v>4</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="56" t="s">
         <v>262</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="56">
         <v>123456789</v>
       </c>
-      <c r="G8" s="66">
-        <v>12345678</v>
+      <c r="G8" s="56">
+        <v>88888888</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="66">
+      <c r="B9" s="56">
         <v>5</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="56">
         <v>123456789</v>
       </c>
-      <c r="G9" s="66">
-        <v>12345678</v>
+      <c r="G9" s="56">
+        <v>88888888</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11055,8 +10766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D22D38-C3E1-449B-A578-E51941E8C3BB}">
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11073,14 +10784,13 @@
       <c r="B3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="73"/>
     </row>
     <row r="4" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>80</v>
@@ -11096,399 +10806,399 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="66">
-        <v>1</v>
-      </c>
-      <c r="C5" s="66" t="s">
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="E5" s="56">
+        <v>195</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" s="56">
+        <v>1</v>
+      </c>
+      <c r="H5" s="53"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="53">
+        <v>1</v>
+      </c>
+      <c r="K5" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="56">
+        <v>2</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="56">
+        <v>185</v>
+      </c>
+      <c r="F6" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="E5" s="66">
+      <c r="G6" s="56">
+        <v>3</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="53">
+        <v>1</v>
+      </c>
+      <c r="K6" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="56">
+        <v>3</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="56">
+        <v>175</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7" s="56">
+        <v>3</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="53">
+        <v>3</v>
+      </c>
+      <c r="K7" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="56">
+        <v>4</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="56">
+        <v>165</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="G8" s="56">
+        <v>3</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="53">
+        <v>3</v>
+      </c>
+      <c r="K8" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="56">
+        <v>5</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="56">
+        <v>155</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="56">
+        <v>5</v>
+      </c>
+      <c r="H9" s="53"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="53">
+        <v>3</v>
+      </c>
+      <c r="K9" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="56">
+        <v>6</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="56">
+        <v>284</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" s="56">
+        <v>5</v>
+      </c>
+      <c r="H10" s="53"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="53">
+        <v>5</v>
+      </c>
+      <c r="K10" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="56">
+        <v>7</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="56">
+        <v>268</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="56">
+        <v>4</v>
+      </c>
+      <c r="H11" s="53"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="53">
+        <v>5</v>
+      </c>
+      <c r="K11" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="56">
+        <v>8</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" s="56">
+        <v>252</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="56">
+        <v>5</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="53">
+        <v>4</v>
+      </c>
+      <c r="K12" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="56">
+        <v>9</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="56">
+        <v>236</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="G13" s="56">
+        <v>6</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="53">
+        <v>5</v>
+      </c>
+      <c r="K13" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="56">
+        <v>10</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="56">
+        <v>220</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="G14" s="56">
+        <v>6</v>
+      </c>
+      <c r="H14" s="53"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="53">
+        <v>6</v>
+      </c>
+      <c r="K14" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="56">
+        <v>11</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" s="56">
         <v>195</v>
       </c>
-      <c r="F5" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="G5" s="66">
-        <v>1</v>
-      </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="63">
-        <v>1</v>
-      </c>
-      <c r="K5" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="66">
-        <v>2</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="D6" s="66" t="s">
+      <c r="F15" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15" s="56">
+        <v>2</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="53">
+        <v>6</v>
+      </c>
+      <c r="K15" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="56">
+        <v>12</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="D16" s="56" t="s">
         <v>323</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E16" s="56">
         <v>185</v>
       </c>
-      <c r="F6" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="G6" s="66">
-        <v>3</v>
-      </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="63">
-        <v>1</v>
-      </c>
-      <c r="K6" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="66">
-        <v>3</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="E7" s="66">
+      <c r="F16" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="G16" s="56">
+        <v>2</v>
+      </c>
+      <c r="H16" s="53"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="53">
+        <v>2</v>
+      </c>
+      <c r="K16" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="56">
+        <v>13</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="56">
         <v>175</v>
       </c>
-      <c r="F7" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="G7" s="66">
-        <v>3</v>
-      </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="63">
-        <v>3</v>
-      </c>
-      <c r="K7" s="63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66">
-        <v>4</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="E8" s="66">
+      <c r="F17" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" s="56">
+        <v>2</v>
+      </c>
+      <c r="H17" s="53"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="53">
+        <v>2</v>
+      </c>
+      <c r="K17" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="56">
+        <v>14</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="E18" s="56">
         <v>165</v>
       </c>
-      <c r="F8" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="G8" s="66">
-        <v>3</v>
-      </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="63">
-        <v>3</v>
-      </c>
-      <c r="K8" s="63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="66">
-        <v>5</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="E9" s="66">
-        <v>155</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="G9" s="66">
-        <v>5</v>
-      </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="63">
-        <v>3</v>
-      </c>
-      <c r="K9" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="66">
-        <v>6</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="E10" s="66">
-        <v>284</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="G10" s="66">
-        <v>5</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="63">
-        <v>5</v>
-      </c>
-      <c r="K10" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="66">
-        <v>7</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="E11" s="66">
-        <v>268</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="G11" s="66">
-        <v>4</v>
-      </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="63">
-        <v>5</v>
-      </c>
-      <c r="K11" s="63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66">
-        <v>8</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" s="66">
-        <v>252</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="G12" s="66">
-        <v>5</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="63">
-        <v>4</v>
-      </c>
-      <c r="K12" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="66">
-        <v>9</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>333</v>
-      </c>
-      <c r="E13" s="66">
-        <v>236</v>
-      </c>
-      <c r="F13" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" s="66">
-        <v>6</v>
-      </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="63">
-        <v>5</v>
-      </c>
-      <c r="K13" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="66">
-        <v>10</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="E14" s="66">
-        <v>220</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="G14" s="66">
-        <v>6</v>
-      </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="63">
-        <v>6</v>
-      </c>
-      <c r="K14" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="66">
-        <v>11</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="E15" s="66">
-        <v>195</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="G15" s="66">
-        <v>2</v>
-      </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="63">
-        <v>6</v>
-      </c>
-      <c r="K15" s="63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="66">
-        <v>12</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="E16" s="66">
-        <v>185</v>
-      </c>
-      <c r="F16" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="G16" s="66">
-        <v>2</v>
-      </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="63">
-        <v>2</v>
-      </c>
-      <c r="K16" s="63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="66">
-        <v>13</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="E17" s="66">
-        <v>175</v>
-      </c>
-      <c r="F17" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="G17" s="66">
-        <v>2</v>
-      </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="63">
-        <v>2</v>
-      </c>
-      <c r="K17" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="66">
-        <v>14</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="E18" s="66">
-        <v>165</v>
-      </c>
-      <c r="F18" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="G18" s="66">
-        <v>2</v>
-      </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="63">
-        <v>2</v>
-      </c>
-      <c r="K18" s="63">
+      <c r="F18" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" s="56">
+        <v>2</v>
+      </c>
+      <c r="H18" s="53"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="53">
+        <v>2</v>
+      </c>
+      <c r="K18" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="63"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11525,7 +11235,7 @@
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11551,7 +11261,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>308</v>
+        <v>385</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>89</v>
@@ -11570,340 +11280,340 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67">
-        <v>1</v>
-      </c>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="57">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="57">
+        <v>20</v>
+      </c>
+      <c r="E5" s="59">
+        <v>45116.920162037037</v>
+      </c>
+      <c r="F5" s="57">
+        <v>1</v>
+      </c>
+      <c r="G5" s="57">
+        <v>1</v>
+      </c>
+      <c r="H5" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="57">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D6" s="57">
         <v>20</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E6" s="59">
+        <v>45114.920162037037</v>
+      </c>
+      <c r="F6" s="57">
+        <v>1</v>
+      </c>
+      <c r="G6" s="57">
+        <v>1</v>
+      </c>
+      <c r="H6" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="57">
+        <v>3</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="57">
+        <v>20</v>
+      </c>
+      <c r="E7" s="59">
+        <v>45115.920162037037</v>
+      </c>
+      <c r="F7" s="57">
+        <v>1</v>
+      </c>
+      <c r="G7" s="57">
+        <v>2</v>
+      </c>
+      <c r="H7" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="57">
+        <v>4</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="57">
+        <v>30</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="57">
+        <v>2</v>
+      </c>
+      <c r="G8" s="57">
+        <v>3</v>
+      </c>
+      <c r="H8" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="57">
+        <v>5</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="57">
+        <v>30</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="F9" s="57">
+        <v>3</v>
+      </c>
+      <c r="G9" s="57">
+        <v>2</v>
+      </c>
+      <c r="H9" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="57">
+        <v>6</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="57">
+        <v>20</v>
+      </c>
+      <c r="E10" s="59">
         <v>45116.920162037037</v>
       </c>
-      <c r="F5" s="67">
-        <v>1</v>
-      </c>
-      <c r="G5" s="67">
-        <v>1</v>
-      </c>
-      <c r="H5" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="67">
-        <v>2</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="67">
+      <c r="F10" s="57">
+        <v>1</v>
+      </c>
+      <c r="G10" s="57">
+        <v>3</v>
+      </c>
+      <c r="H10" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="57">
+        <v>7</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="57">
+        <v>40</v>
+      </c>
+      <c r="E11" s="59">
+        <v>45272.920162037037</v>
+      </c>
+      <c r="F11" s="57">
+        <v>2</v>
+      </c>
+      <c r="G11" s="57">
+        <v>4</v>
+      </c>
+      <c r="H11" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="57">
+        <v>8</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="57">
         <v>20</v>
       </c>
-      <c r="E6" s="69">
-        <v>45114.920162037037</v>
-      </c>
-      <c r="F6" s="67">
-        <v>1</v>
-      </c>
-      <c r="G6" s="67">
-        <v>1</v>
-      </c>
-      <c r="H6" s="67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67">
+      <c r="E12" s="59">
+        <v>45116.920162037037</v>
+      </c>
+      <c r="F12" s="57">
         <v>3</v>
       </c>
-      <c r="C7" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="67">
+      <c r="G12" s="57">
+        <v>5</v>
+      </c>
+      <c r="H12" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="57">
+        <v>9</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="57">
+        <v>50</v>
+      </c>
+      <c r="E13" s="59">
+        <v>45116.920162037037</v>
+      </c>
+      <c r="F13" s="57">
+        <v>3</v>
+      </c>
+      <c r="G13" s="57">
+        <v>2</v>
+      </c>
+      <c r="H13" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="57">
+        <v>10</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="57">
         <v>20</v>
       </c>
-      <c r="E7" s="69">
-        <v>45115.920162037037</v>
-      </c>
-      <c r="F7" s="67">
-        <v>1</v>
-      </c>
-      <c r="G7" s="67">
-        <v>2</v>
-      </c>
-      <c r="H7" s="67">
+      <c r="E14" s="59">
+        <v>45116.920162037037</v>
+      </c>
+      <c r="F14" s="57">
+        <v>2</v>
+      </c>
+      <c r="G14" s="57">
+        <v>2</v>
+      </c>
+      <c r="H14" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="57">
+        <v>11</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="57">
+        <v>10</v>
+      </c>
+      <c r="E15" s="59">
+        <v>45086.920162037037</v>
+      </c>
+      <c r="F15" s="57">
+        <v>2</v>
+      </c>
+      <c r="G15" s="57">
+        <v>1</v>
+      </c>
+      <c r="H15" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="57">
+        <v>12</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="57">
+        <v>20</v>
+      </c>
+      <c r="E16" s="59">
+        <v>45116.920162037037</v>
+      </c>
+      <c r="F16" s="57">
+        <v>1</v>
+      </c>
+      <c r="G16" s="57">
+        <v>1</v>
+      </c>
+      <c r="H16" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67">
-        <v>4</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="67">
-        <v>30</v>
-      </c>
-      <c r="E8" s="69">
-        <v>44972.920162037037</v>
-      </c>
-      <c r="F8" s="67">
-        <v>2</v>
-      </c>
-      <c r="G8" s="70">
-        <v>3</v>
-      </c>
-      <c r="H8" s="67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="67">
-        <v>5</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="67">
-        <v>30</v>
-      </c>
-      <c r="E9" s="69">
-        <v>44972.920162037037</v>
-      </c>
-      <c r="F9" s="67">
-        <v>3</v>
-      </c>
-      <c r="G9" s="70">
-        <v>2</v>
-      </c>
-      <c r="H9" s="67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="67">
-        <v>6</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="67">
-        <v>20</v>
-      </c>
-      <c r="E10" s="69">
-        <v>45116.920162037037</v>
-      </c>
-      <c r="F10" s="67">
-        <v>1</v>
-      </c>
-      <c r="G10" s="70">
-        <v>3</v>
-      </c>
-      <c r="H10" s="67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="67">
-        <v>7</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="67">
-        <v>40</v>
-      </c>
-      <c r="E11" s="69">
-        <v>45272.920162037037</v>
-      </c>
-      <c r="F11" s="67">
-        <v>2</v>
-      </c>
-      <c r="G11" s="70">
-        <v>4</v>
-      </c>
-      <c r="H11" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67">
-        <v>8</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>303</v>
-      </c>
-      <c r="D12" s="67">
-        <v>20</v>
-      </c>
-      <c r="E12" s="69">
-        <v>45116.920162037037</v>
-      </c>
-      <c r="F12" s="67">
-        <v>3</v>
-      </c>
-      <c r="G12" s="70">
-        <v>5</v>
-      </c>
-      <c r="H12" s="67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67">
-        <v>9</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>304</v>
-      </c>
-      <c r="D13" s="67">
-        <v>50</v>
-      </c>
-      <c r="E13" s="69">
-        <v>45116.920162037037</v>
-      </c>
-      <c r="F13" s="67">
-        <v>3</v>
-      </c>
-      <c r="G13" s="70">
-        <v>2</v>
-      </c>
-      <c r="H13" s="67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="67">
-        <v>10</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>305</v>
-      </c>
-      <c r="D14" s="67">
-        <v>20</v>
-      </c>
-      <c r="E14" s="69">
-        <v>45116.920162037037</v>
-      </c>
-      <c r="F14" s="67">
-        <v>2</v>
-      </c>
-      <c r="G14" s="70">
-        <v>2</v>
-      </c>
-      <c r="H14" s="67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="67">
-        <v>11</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="D15" s="67">
-        <v>10</v>
-      </c>
-      <c r="E15" s="69">
-        <v>45086.920162037037</v>
-      </c>
-      <c r="F15" s="67">
-        <v>2</v>
-      </c>
-      <c r="G15" s="70">
-        <v>1</v>
-      </c>
-      <c r="H15" s="67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="67">
-        <v>12</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" s="67">
-        <v>20</v>
-      </c>
-      <c r="E16" s="69">
-        <v>45116.920162037037</v>
-      </c>
-      <c r="F16" s="67">
-        <v>1</v>
-      </c>
-      <c r="G16" s="70">
-        <v>1</v>
-      </c>
-      <c r="H16" s="67">
-        <v>3</v>
-      </c>
-    </row>
     <row r="17" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
+      <c r="C17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
+      <c r="C18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="C19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
+      <c r="C20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
+      <c r="C21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
+      <c r="C22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
+      <c r="C23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
+      <c r="C24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64"/>
+      <c r="C25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
+      <c r="C26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
+      <c r="C27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
+      <c r="C28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="3:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/1. Database Design/JAVA 19 20 - Quyen Phan - Database Design.xlsx
+++ b/1. Database Design/JAVA 19 20 - Quyen Phan - Database Design.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E895BA-B6EF-4227-A7D9-DFA141F44584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC69F2A-F7F3-4861-9D2A-0C3112B550D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="883" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="883" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="396">
   <si>
     <t>Xác định các đối tượng cần lưu trữ
 Xác định các thuộc tính, thông tin của từng đối tượng</t>
@@ -1581,9 +1581,6 @@
     <t>-- 3. Đơn hàng từ 9 - 10 --&gt; Đang giao hàng (trạng thái từ 1 - 5) --&gt; Nhân viên 3</t>
   </si>
   <si>
-    <t xml:space="preserve"> -- 4. Đơn hàng từ 11 - 12 --&gt; Hủy đơn hàng (trạng thái 7) --&gt; Nhân viên 4</t>
-  </si>
-  <si>
     <t>INSERT INTO `order_delivery_status_detail`(ORDER_ID, STATUS_ID, EMPLOYEE_ID, LAST_UPDATED_AT)</t>
   </si>
   <si>
@@ -1723,6 +1720,18 @@
   </si>
   <si>
     <t>T13x</t>
+  </si>
+  <si>
+    <t>T04 x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- 4. Đơn hàng từ 11 - 12 --&gt; Hủy đơn hàng (trạng thái 1, 7) --&gt; Nhân viên 4</t>
+  </si>
+  <si>
+    <t>T07 x</t>
+  </si>
+  <si>
+    <t>T08 x</t>
   </si>
 </sst>
 </file>
@@ -2962,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1E66AC-B7AB-4694-9C29-CBC315CB6160}">
-  <dimension ref="B1:E52"/>
+  <dimension ref="B1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,14 +2987,14 @@
     <col min="6" max="29" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>72</v>
       </c>
@@ -2999,7 +3008,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="43">
         <v>1</v>
       </c>
@@ -3012,8 +3021,12 @@
       <c r="E5" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f>'B4. Cơ sở dữ liệu vật lý'!E5 'B4. Cơ sở dữ liệu vật lý'!E5</f>
+        <v>T04 x</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="43">
         <v>2</v>
       </c>
@@ -3026,8 +3039,12 @@
       <c r="E6" s="56">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" ref="F6:F52" si="0">_xlfn.CONCAT("(",B6,",",C6,",",D6,",",E6,")",",")</f>
+        <v>(2,1,31,5),</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43">
         <v>3</v>
       </c>
@@ -3040,8 +3057,12 @@
       <c r="E7" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,1,49,1),</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43">
         <v>4</v>
       </c>
@@ -3054,8 +3075,12 @@
       <c r="E8" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,1,68,2),</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="43">
         <v>5</v>
       </c>
@@ -3068,8 +3093,12 @@
       <c r="E9" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,2,39,2),</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="43">
         <v>6</v>
       </c>
@@ -3082,8 +3111,12 @@
       <c r="E10" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,2,48,2),</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43">
         <v>7</v>
       </c>
@@ -3096,8 +3129,12 @@
       <c r="E11" s="56">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,2,50,12),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="43">
         <v>8</v>
       </c>
@@ -3110,8 +3147,12 @@
       <c r="E12" s="56">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,2,53,3),</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="43">
         <v>9</v>
       </c>
@@ -3124,8 +3165,12 @@
       <c r="E13" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,3,21,2),</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="43">
         <v>10</v>
       </c>
@@ -3138,8 +3183,12 @@
       <c r="E14" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,3,22,2),</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="43">
         <v>11</v>
       </c>
@@ -3152,8 +3201,12 @@
       <c r="E15" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,3,39,2),</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="43">
         <v>12</v>
       </c>
@@ -3166,8 +3219,12 @@
       <c r="E16" s="56">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>(12,3,49,11),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="43">
         <v>13</v>
       </c>
@@ -3180,8 +3237,12 @@
       <c r="E17" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>(13,4,11,2),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="43">
         <v>14</v>
       </c>
@@ -3194,8 +3255,12 @@
       <c r="E18" s="56">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>(14,4,41,3),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="43">
         <v>15</v>
       </c>
@@ -3208,8 +3273,12 @@
       <c r="E19" s="56">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>(15,4,46,3),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="43">
         <v>16</v>
       </c>
@@ -3222,8 +3291,12 @@
       <c r="E20" s="56">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>(16,4,69,3),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="43">
         <v>17</v>
       </c>
@@ -3236,8 +3309,12 @@
       <c r="E21" s="56">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>(17,5,5,3),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="43">
         <v>18</v>
       </c>
@@ -3250,8 +3327,12 @@
       <c r="E22" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>(18,5,24,2),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="43">
         <v>19</v>
       </c>
@@ -3264,8 +3345,12 @@
       <c r="E23" s="56">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>(19,5,39,8),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="43">
         <v>20</v>
       </c>
@@ -3278,8 +3363,12 @@
       <c r="E24" s="56">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>(20,5,56,8),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="43">
         <v>21</v>
       </c>
@@ -3292,8 +3381,12 @@
       <c r="E25" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>(21,6,10,2),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="43">
         <v>22</v>
       </c>
@@ -3306,8 +3399,12 @@
       <c r="E26" s="56">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>(22,6,23,9),</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="43">
         <v>23</v>
       </c>
@@ -3320,8 +3417,12 @@
       <c r="E27" s="56">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>(23,6,29,3),</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="43">
         <v>24</v>
       </c>
@@ -3334,8 +3435,12 @@
       <c r="E28" s="56">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>(24,6,30,11),</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="43">
         <v>25</v>
       </c>
@@ -3348,8 +3453,12 @@
       <c r="E29" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>(25,7,17,2),</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="43">
         <v>26</v>
       </c>
@@ -3362,8 +3471,12 @@
       <c r="E30" s="56">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>(26,7,43,15),</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="43">
         <v>27</v>
       </c>
@@ -3376,8 +3489,12 @@
       <c r="E31" s="56">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>(27,7,54,10),</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="43">
         <v>28</v>
       </c>
@@ -3390,8 +3507,12 @@
       <c r="E32" s="56">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>(28,7,57,5),</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="43">
         <v>29</v>
       </c>
@@ -3404,8 +3525,12 @@
       <c r="E33" s="56">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>(29,8,8,20),</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="43">
         <v>30</v>
       </c>
@@ -3418,8 +3543,12 @@
       <c r="E34" s="56">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>(30,8,18,7),</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="43">
         <v>31</v>
       </c>
@@ -3432,8 +3561,12 @@
       <c r="E35" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>(31,8,59,2),</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="43">
         <v>32</v>
       </c>
@@ -3446,8 +3579,12 @@
       <c r="E36" s="56">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>(32,8,65,9),</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="43">
         <v>33</v>
       </c>
@@ -3460,8 +3597,12 @@
       <c r="E37" s="56">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>(33,9,29,10),</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="43">
         <v>34</v>
       </c>
@@ -3474,8 +3615,12 @@
       <c r="E38" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>(34,9,34,1),</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="43">
         <v>35</v>
       </c>
@@ -3488,8 +3633,12 @@
       <c r="E39" s="56">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>(35,9,38,7),</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="43">
         <v>36</v>
       </c>
@@ -3502,8 +3651,12 @@
       <c r="E40" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>(36,9,53,2),</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="43">
         <v>37</v>
       </c>
@@ -3516,8 +3669,12 @@
       <c r="E41" s="56">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>(37,10,22,10),</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="43">
         <v>38</v>
       </c>
@@ -3530,8 +3687,12 @@
       <c r="E42" s="56">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>(38,10,24,10),</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="43">
         <v>39</v>
       </c>
@@ -3544,8 +3705,12 @@
       <c r="E43" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>(39,10,40,2),</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="43">
         <v>40</v>
       </c>
@@ -3558,8 +3723,12 @@
       <c r="E44" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>(40,10,50,2),</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="43">
         <v>41</v>
       </c>
@@ -3572,8 +3741,12 @@
       <c r="E45" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>(41,11,37,2),</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="43">
         <v>42</v>
       </c>
@@ -3586,8 +3759,12 @@
       <c r="E46" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>(42,11,38,2),</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="43">
         <v>43</v>
       </c>
@@ -3600,8 +3777,12 @@
       <c r="E47" s="56">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>(43,11,48,11),</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="43">
         <v>44</v>
       </c>
@@ -3614,8 +3795,12 @@
       <c r="E48" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>(44,11,51,2),</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="43">
         <v>45</v>
       </c>
@@ -3628,8 +3813,12 @@
       <c r="E49" s="56">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>(45,12,1,12),</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="43">
         <v>46</v>
       </c>
@@ -3642,8 +3831,12 @@
       <c r="E50" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>(46,12,29,2),</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="43">
         <v>47</v>
       </c>
@@ -3656,8 +3849,12 @@
       <c r="E51" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>(47,12,35,1),</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="43">
         <v>48</v>
       </c>
@@ -3669,6 +3866,10 @@
       </c>
       <c r="E52" s="56">
         <v>3</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>(48,12,42,3),</v>
       </c>
     </row>
   </sheetData>
@@ -3998,8 +4199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B2115A-D7BF-41E7-AB58-A59A037F38B4}">
   <dimension ref="B1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4057,7 +4258,7 @@
     </row>
     <row r="9" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="63" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="C9" s="64"/>
     </row>
@@ -4071,17 +4272,17 @@
     <row r="13" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4091,53 +4292,53 @@
     </row>
     <row r="18" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4147,37 +4348,37 @@
     </row>
     <row r="30" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4189,7 +4390,7 @@
     <row r="38" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
@@ -4199,37 +4400,37 @@
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -4240,60 +4441,60 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
+        <v>372</v>
+      </c>
+      <c r="D59" t="s">
         <v>373</v>
-      </c>
-      <c r="D59" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -4836,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD1D9A7-6595-4AD7-8E58-C4F147702EF9}">
   <dimension ref="B3:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4881,7 +5082,7 @@
         <v>210</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6221,7 +6422,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8634,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79120E3-8B85-45B8-906C-9F3770585442}">
   <dimension ref="A1:Y142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -8706,43 +8907,43 @@
     </row>
     <row r="5" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="H5" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="18" t="s">
+      <c r="L5" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="L5" s="18" t="s">
+      <c r="M5" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="N5" s="18" t="s">
         <v>391</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>392</v>
       </c>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
@@ -11261,7 +11462,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>89</v>
@@ -11359,7 +11560,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F8" s="57">
         <v>2</v>
@@ -11382,7 +11583,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F9" s="57">
         <v>3</v>
